--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Isosorbide mononitrate - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Isosorbide mononitrate - all categories.xlsx
@@ -93,61 +93,70 @@
     <t>tier01TripleInformation/8/predicateName</t>
   </si>
   <si>
+    <t>1352323</t>
+  </si>
+  <si>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>Chemicals &amp; Drugs</t>
+  </si>
+  <si>
+    <t>485598</t>
+  </si>
+  <si>
+    <t>isosorbide mononitrate</t>
+  </si>
+  <si>
+    <t>108810863</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
     <t>4033983</t>
   </si>
   <si>
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>Chemicals &amp; Drugs</t>
-  </si>
-  <si>
-    <t>485598</t>
-  </si>
-  <si>
-    <t>isosorbide mononitrate</t>
-  </si>
-  <si>
-    <t>140932314</t>
+    <t>83957808</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>76941658</t>
+  </si>
+  <si>
+    <t>53477912</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>76825429</t>
   </si>
   <si>
     <t>coexists with</t>
   </si>
   <si>
-    <t>119807944</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>150338120</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>134120840</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>179702313</t>
+    <t>67731752</t>
+  </si>
+  <si>
+    <t>113575589</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>143426314</t>
-  </si>
-  <si>
     <t>5699144</t>
   </si>
   <si>
     <t>ethanol</t>
   </si>
   <si>
-    <t>188515913</t>
+    <t>122373935</t>
   </si>
   <si>
     <t>stimulates</t>
@@ -159,7 +168,7 @@
     <t>sodium chloride</t>
   </si>
   <si>
-    <t>142573976</t>
+    <t>76087636</t>
   </si>
   <si>
     <t>320774</t>
@@ -168,7 +177,7 @@
     <t>water</t>
   </si>
   <si>
-    <t>165806044</t>
+    <t>99571396</t>
   </si>
   <si>
     <t>445573</t>
@@ -177,7 +186,7 @@
     <t>cyclosporine</t>
   </si>
   <si>
-    <t>157803209</t>
+    <t>91612390</t>
   </si>
   <si>
     <t>4048501</t>
@@ -186,7 +195,7 @@
     <t>hydrogen peroxide</t>
   </si>
   <si>
-    <t>180840107</t>
+    <t>114608007</t>
   </si>
   <si>
     <t>inhibits</t>
@@ -198,10 +207,10 @@
     <t>nitric oxide</t>
   </si>
   <si>
-    <t>124309410</t>
-  </si>
-  <si>
-    <t>151877645</t>
+    <t>85495751</t>
+  </si>
+  <si>
+    <t>57886252</t>
   </si>
   <si>
     <t>621064</t>
@@ -210,7 +219,7 @@
     <t>reactive oxygen species</t>
   </si>
   <si>
-    <t>164972825</t>
+    <t>98740130</t>
   </si>
   <si>
     <t>does not interact with</t>
@@ -222,7 +231,7 @@
     <t>hydrocortisone</t>
   </si>
   <si>
-    <t>189435308</t>
+    <t>123245278</t>
   </si>
   <si>
     <t>308570</t>
@@ -231,7 +240,7 @@
     <t>antioxidants</t>
   </si>
   <si>
-    <t>123971629</t>
+    <t>57560749</t>
   </si>
   <si>
     <t>4877522</t>
@@ -240,7 +249,7 @@
     <t>amphetamine</t>
   </si>
   <si>
-    <t>126714788</t>
+    <t>60301247</t>
   </si>
   <si>
     <t>643114</t>
@@ -249,10 +258,10 @@
     <t>aspirin</t>
   </si>
   <si>
-    <t>156572126</t>
-  </si>
-  <si>
-    <t>172017364</t>
+    <t>90295546</t>
+  </si>
+  <si>
+    <t>105796328</t>
   </si>
   <si>
     <t>2632572</t>
@@ -261,10 +270,10 @@
     <t>nitric oxide synthase, endothelial (homo sapiens)</t>
   </si>
   <si>
-    <t>188603521</t>
-  </si>
-  <si>
-    <t>178410232</t>
+    <t>122460745</t>
+  </si>
+  <si>
+    <t>112201138</t>
   </si>
   <si>
     <t>645968</t>
@@ -273,22 +282,22 @@
     <t>dinoprostone</t>
   </si>
   <si>
-    <t>190120936</t>
+    <t>79411841</t>
+  </si>
+  <si>
+    <t>123916710</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>190120132</t>
-  </si>
-  <si>
-    <t>190119475</t>
-  </si>
-  <si>
-    <t>145813754</t>
-  </si>
-  <si>
-    <t>190113621</t>
+    <t>123917971</t>
+  </si>
+  <si>
+    <t>123910760</t>
+  </si>
+  <si>
+    <t>123917320</t>
   </si>
   <si>
     <t>131221</t>
@@ -297,7 +306,7 @@
     <t>protein kinase c</t>
   </si>
   <si>
-    <t>153052884</t>
+    <t>86740914</t>
   </si>
   <si>
     <t>444837</t>
@@ -306,10 +315,10 @@
     <t>alkaline phosphatase</t>
   </si>
   <si>
-    <t>169608447</t>
-  </si>
-  <si>
-    <t>189191028</t>
+    <t>103390964</t>
+  </si>
+  <si>
+    <t>122976073</t>
   </si>
   <si>
     <t>271994</t>
@@ -318,7 +327,7 @@
     <t>potassium</t>
   </si>
   <si>
-    <t>174989438</t>
+    <t>108810819</t>
   </si>
   <si>
     <t>700033</t>
@@ -327,7 +336,7 @@
     <t>angiotensinogen (homo sapiens)</t>
   </si>
   <si>
-    <t>174543839</t>
+    <t>108321309</t>
   </si>
   <si>
     <t>4028609</t>
@@ -336,7 +345,7 @@
     <t>liposomes</t>
   </si>
   <si>
-    <t>173492664</t>
+    <t>107296888</t>
   </si>
   <si>
     <t>82750</t>
@@ -345,16 +354,37 @@
     <t>adriamycin</t>
   </si>
   <si>
-    <t>196505345</t>
-  </si>
-  <si>
-    <t>1352323</t>
-  </si>
-  <si>
-    <t>magnesium</t>
-  </si>
-  <si>
-    <t>174989496</t>
+    <t>130351930</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>74440736</t>
+  </si>
+  <si>
+    <t>97625799</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>59393681</t>
+  </si>
+  <si>
+    <t>81361210</t>
+  </si>
+  <si>
+    <t>81360797</t>
+  </si>
+  <si>
+    <t>113575838</t>
+  </si>
+  <si>
+    <t>78758095</t>
   </si>
   <si>
     <t>231760</t>
@@ -363,52 +393,22 @@
     <t>superoxides</t>
   </si>
   <si>
-    <t>190146878</t>
-  </si>
-  <si>
-    <t>190147108</t>
+    <t>123932674</t>
+  </si>
+  <si>
+    <t>123932859</t>
   </si>
   <si>
     <t>does not coexist with</t>
   </si>
   <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>125814918</t>
-  </si>
-  <si>
-    <t>147825592</t>
-  </si>
-  <si>
-    <t>147825239</t>
-  </si>
-  <si>
-    <t>179702527</t>
-  </si>
-  <si>
-    <t>140820371</t>
-  </si>
-  <si>
-    <t>163832913</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>145152758</t>
-  </si>
-  <si>
     <t>3097558</t>
   </si>
   <si>
     <t>human plasma</t>
   </si>
   <si>
-    <t>119309345</t>
+    <t>56825883</t>
   </si>
   <si>
     <t>4034569</t>
@@ -417,7 +417,7 @@
     <t>esters</t>
   </si>
   <si>
-    <t>163397763</t>
+    <t>97200151</t>
   </si>
   <si>
     <t>3151549</t>
@@ -426,7 +426,7 @@
     <t>cyclooxygenase 2</t>
   </si>
   <si>
-    <t>193308090</t>
+    <t>127097938</t>
   </si>
   <si>
     <t>4048672</t>
@@ -435,31 +435,31 @@
     <t>cyclic gmp</t>
   </si>
   <si>
-    <t>130175225</t>
-  </si>
-  <si>
-    <t>130175348</t>
-  </si>
-  <si>
-    <t>130175708</t>
-  </si>
-  <si>
-    <t>130862234</t>
+    <t>64385294</t>
   </si>
   <si>
     <t>does not stimulate</t>
   </si>
   <si>
+    <t>63814024</t>
+  </si>
+  <si>
+    <t>63814428</t>
+  </si>
+  <si>
+    <t>63814106</t>
+  </si>
+  <si>
     <t>99518</t>
   </si>
   <si>
     <t>catecholamines</t>
   </si>
   <si>
-    <t>148043534</t>
-  </si>
-  <si>
-    <t>172560097</t>
+    <t>106340181</t>
+  </si>
+  <si>
+    <t>83545972</t>
   </si>
   <si>
     <t>414714</t>
@@ -468,7 +468,7 @@
     <t>anions</t>
   </si>
   <si>
-    <t>125138489</t>
+    <t>58714499</t>
   </si>
   <si>
     <t>4048132</t>
@@ -477,16 +477,16 @@
     <t>nifedipine</t>
   </si>
   <si>
-    <t>124564845</t>
-  </si>
-  <si>
-    <t>135346812</t>
-  </si>
-  <si>
-    <t>122858557</t>
-  </si>
-  <si>
-    <t>135346686</t>
+    <t>68845767</t>
+  </si>
+  <si>
+    <t>59961087</t>
+  </si>
+  <si>
+    <t>68845901</t>
+  </si>
+  <si>
+    <t>61532676</t>
   </si>
   <si>
     <t>255998</t>
@@ -495,7 +495,7 @@
     <t>nitric oxide synthase</t>
   </si>
   <si>
-    <t>170987691</t>
+    <t>104773703</t>
   </si>
   <si>
     <t>523568</t>
@@ -504,7 +504,7 @@
     <t>somatostatin (homo sapiens)</t>
   </si>
   <si>
-    <t>144499032</t>
+    <t>78129802</t>
   </si>
   <si>
     <t>524085</t>
@@ -513,13 +513,13 @@
     <t>epoprostenol</t>
   </si>
   <si>
-    <t>120118067</t>
-  </si>
-  <si>
-    <t>120119992</t>
-  </si>
-  <si>
-    <t>148043485</t>
+    <t>53804439</t>
+  </si>
+  <si>
+    <t>53806091</t>
+  </si>
+  <si>
+    <t>83545939</t>
   </si>
   <si>
     <t>704237</t>
@@ -528,7 +528,7 @@
     <t>dihydrofolate reductase (homo sapiens)</t>
   </si>
   <si>
-    <t>164985303</t>
+    <t>98751854</t>
   </si>
   <si>
     <t>555919</t>
@@ -537,7 +537,7 @@
     <t>atrial natriuretic factor</t>
   </si>
   <si>
-    <t>182233211</t>
+    <t>116097357</t>
   </si>
   <si>
     <t>123856</t>
@@ -546,7 +546,7 @@
     <t>platelet activating factor</t>
   </si>
   <si>
-    <t>127619310</t>
+    <t>61186033</t>
   </si>
   <si>
     <t>4027382</t>
@@ -555,7 +555,7 @@
     <t>malondialdehyde</t>
   </si>
   <si>
-    <t>180840129</t>
+    <t>114608045</t>
   </si>
   <si>
     <t>836551</t>
@@ -564,7 +564,7 @@
     <t>furosemide</t>
   </si>
   <si>
-    <t>122862526</t>
+    <t>59964909</t>
   </si>
   <si>
     <t>4048707</t>
@@ -573,7 +573,16 @@
     <t>growth inhibitors</t>
   </si>
   <si>
-    <t>184137257</t>
+    <t>117941245</t>
+  </si>
+  <si>
+    <t>4775900</t>
+  </si>
+  <si>
+    <t>calcium channel blockers</t>
+  </si>
+  <si>
+    <t>64625009</t>
   </si>
   <si>
     <t>562100</t>
@@ -582,31 +591,22 @@
     <t>nitroglycerin</t>
   </si>
   <si>
-    <t>129928814</t>
-  </si>
-  <si>
-    <t>129929411</t>
-  </si>
-  <si>
-    <t>122042044</t>
-  </si>
-  <si>
-    <t>129928760</t>
-  </si>
-  <si>
-    <t>129929503</t>
-  </si>
-  <si>
-    <t>130938883</t>
-  </si>
-  <si>
-    <t>4775900</t>
-  </si>
-  <si>
-    <t>calcium channel blockers</t>
-  </si>
-  <si>
-    <t>131038121</t>
+    <t>63562956</t>
+  </si>
+  <si>
+    <t>63562171</t>
+  </si>
+  <si>
+    <t>63562121</t>
+  </si>
+  <si>
+    <t>63563098</t>
+  </si>
+  <si>
+    <t>55622966</t>
+  </si>
+  <si>
+    <t>64524741</t>
   </si>
   <si>
     <t>2434669</t>
@@ -615,49 +615,49 @@
     <t>nitrate</t>
   </si>
   <si>
-    <t>131786962</t>
-  </si>
-  <si>
-    <t>132999931</t>
-  </si>
-  <si>
-    <t>125138601</t>
-  </si>
-  <si>
-    <t>131774447</t>
-  </si>
-  <si>
-    <t>120677390</t>
-  </si>
-  <si>
-    <t>185980707</t>
+    <t>66622553</t>
+  </si>
+  <si>
+    <t>68211757</t>
+  </si>
+  <si>
+    <t>58714594</t>
+  </si>
+  <si>
+    <t>58034400</t>
+  </si>
+  <si>
+    <t>119772218</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
+    <t>68222955</t>
+  </si>
+  <si>
     <t>5231409</t>
   </si>
   <si>
     <t>adrenergic beta-antagonists</t>
   </si>
   <si>
-    <t>131038001</t>
-  </si>
-  <si>
-    <t>190752069</t>
-  </si>
-  <si>
-    <t>131038057</t>
-  </si>
-  <si>
-    <t>139269792</t>
-  </si>
-  <si>
-    <t>190752706</t>
-  </si>
-  <si>
-    <t>118541309</t>
+    <t>72861629</t>
+  </si>
+  <si>
+    <t>64624957</t>
+  </si>
+  <si>
+    <t>52272909</t>
+  </si>
+  <si>
+    <t>64624908</t>
+  </si>
+  <si>
+    <t>124611357</t>
+  </si>
+  <si>
+    <t>124612062</t>
   </si>
   <si>
     <t>279948</t>
@@ -666,13 +666,13 @@
     <t>diltiazem</t>
   </si>
   <si>
-    <t>133029927</t>
-  </si>
-  <si>
-    <t>133030447</t>
-  </si>
-  <si>
-    <t>152322310</t>
+    <t>66538303</t>
+  </si>
+  <si>
+    <t>66538841</t>
+  </si>
+  <si>
+    <t>87848626</t>
   </si>
   <si>
     <t>4890533</t>
@@ -681,7 +681,7 @@
     <t>angiotensin-converting enzyme inhibitors</t>
   </si>
   <si>
-    <t>175138916</t>
+    <t>109018011</t>
   </si>
   <si>
     <t>79589</t>
@@ -690,7 +690,7 @@
     <t>pertussis toxin</t>
   </si>
   <si>
-    <t>122091487</t>
+    <t>55673850</t>
   </si>
   <si>
     <t>496779</t>
@@ -699,7 +699,7 @@
     <t>losartan</t>
   </si>
   <si>
-    <t>188505709</t>
+    <t>122292247</t>
   </si>
   <si>
     <t>4041077</t>
@@ -708,7 +708,7 @@
     <t>enalapril</t>
   </si>
   <si>
-    <t>176069440</t>
+    <t>109940608</t>
   </si>
   <si>
     <t>4027065</t>
@@ -717,13 +717,13 @@
     <t>prazosin</t>
   </si>
   <si>
-    <t>172800605</t>
-  </si>
-  <si>
-    <t>172800329</t>
-  </si>
-  <si>
-    <t>124565259</t>
+    <t>106611483</t>
+  </si>
+  <si>
+    <t>106611238</t>
+  </si>
+  <si>
+    <t>61532838</t>
   </si>
   <si>
     <t>4035582</t>
@@ -732,7 +732,7 @@
     <t>isoenzymes</t>
   </si>
   <si>
-    <t>191919184</t>
+    <t>125709066</t>
   </si>
   <si>
     <t>4042060</t>
@@ -741,7 +741,7 @@
     <t>cellulose</t>
   </si>
   <si>
-    <t>158560330</t>
+    <t>92336510</t>
   </si>
   <si>
     <t>794794</t>
@@ -750,7 +750,7 @@
     <t>metoprolol</t>
   </si>
   <si>
-    <t>133030386</t>
+    <t>66538769</t>
   </si>
   <si>
     <t>156364</t>
@@ -759,7 +759,7 @@
     <t>peroxynitrite</t>
   </si>
   <si>
-    <t>157808618</t>
+    <t>91617797</t>
   </si>
   <si>
     <t>5792455</t>
@@ -768,10 +768,10 @@
     <t>atenolol</t>
   </si>
   <si>
-    <t>121350137</t>
-  </si>
-  <si>
-    <t>121350257</t>
+    <t>58635769</t>
+  </si>
+  <si>
+    <t>58635635</t>
   </si>
   <si>
     <t>259617</t>
@@ -780,7 +780,16 @@
     <t>double-stranded rna-specific editase b2 (homo sapiens)</t>
   </si>
   <si>
-    <t>191919060</t>
+    <t>125708925</t>
+  </si>
+  <si>
+    <t>4950808</t>
+  </si>
+  <si>
+    <t>allopurinol</t>
+  </si>
+  <si>
+    <t>125347369</t>
   </si>
   <si>
     <t>3113437</t>
@@ -789,19 +798,10 @@
     <t>sildenafil</t>
   </si>
   <si>
-    <t>133371071</t>
-  </si>
-  <si>
-    <t>133319238</t>
-  </si>
-  <si>
-    <t>4950808</t>
-  </si>
-  <si>
-    <t>allopurinol</t>
-  </si>
-  <si>
-    <t>191536583</t>
+    <t>66979923</t>
+  </si>
+  <si>
+    <t>67031965</t>
   </si>
   <si>
     <t>90859</t>
@@ -810,10 +810,10 @@
     <t>amlodipine</t>
   </si>
   <si>
-    <t>125014933</t>
-  </si>
-  <si>
-    <t>142223634</t>
+    <t>58599768</t>
+  </si>
+  <si>
+    <t>75864112</t>
   </si>
   <si>
     <t>5229804</t>
@@ -822,13 +822,13 @@
     <t>carvedilol</t>
   </si>
   <si>
-    <t>191201825</t>
-  </si>
-  <si>
-    <t>191201461</t>
-  </si>
-  <si>
-    <t>191201479</t>
+    <t>124990697</t>
+  </si>
+  <si>
+    <t>124990712</t>
+  </si>
+  <si>
+    <t>124991082</t>
   </si>
   <si>
     <t>5698840</t>
@@ -837,7 +837,7 @@
     <t>ng-nitroarginine methyl ester</t>
   </si>
   <si>
-    <t>153604916</t>
+    <t>87337118</t>
   </si>
   <si>
     <t>2873825</t>
@@ -846,7 +846,7 @@
     <t>red blood cells, blood product</t>
   </si>
   <si>
-    <t>146337757</t>
+    <t>79969776</t>
   </si>
   <si>
     <t>769791</t>
@@ -855,7 +855,7 @@
     <t>thromboxane b2</t>
   </si>
   <si>
-    <t>135770710</t>
+    <t>71899530</t>
   </si>
   <si>
     <t>778449</t>
@@ -864,10 +864,10 @@
     <t>nitric oxide donors</t>
   </si>
   <si>
-    <t>135541095</t>
-  </si>
-  <si>
-    <t>167375223</t>
+    <t>69128632</t>
+  </si>
+  <si>
+    <t>101167880</t>
   </si>
   <si>
     <t>713559</t>
@@ -876,7 +876,7 @@
     <t>vasodilator agents</t>
   </si>
   <si>
-    <t>137216555</t>
+    <t>70834340</t>
   </si>
   <si>
     <t>4047983</t>
@@ -885,10 +885,10 @@
     <t>guanylate cyclase</t>
   </si>
   <si>
-    <t>131774550</t>
-  </si>
-  <si>
-    <t>131734066</t>
+    <t>68211844</t>
+  </si>
+  <si>
+    <t>68174931</t>
   </si>
   <si>
     <t>2427865</t>
@@ -897,7 +897,7 @@
     <t>aldehyde dehydrogenases</t>
   </si>
   <si>
-    <t>199047289</t>
+    <t>132856130</t>
   </si>
   <si>
     <t>5792871</t>
@@ -906,10 +906,10 @@
     <t>silymarin</t>
   </si>
   <si>
-    <t>151058602</t>
-  </si>
-  <si>
-    <t>151053516</t>
+    <t>84602167</t>
+  </si>
+  <si>
+    <t>84606528</t>
   </si>
   <si>
     <t>5698750</t>
@@ -918,7 +918,7 @@
     <t>alendronate</t>
   </si>
   <si>
-    <t>166091951</t>
+    <t>99858753</t>
   </si>
   <si>
     <t>5792554</t>
@@ -927,34 +927,34 @@
     <t>misoprostol</t>
   </si>
   <si>
-    <t>185950657</t>
-  </si>
-  <si>
-    <t>175976168</t>
+    <t>125899360</t>
+  </si>
+  <si>
+    <t>119756577</t>
+  </si>
+  <si>
+    <t>115974961</t>
+  </si>
+  <si>
+    <t>99106391</t>
+  </si>
+  <si>
+    <t>109748271</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>165301102</t>
-  </si>
-  <si>
-    <t>182171267</t>
-  </si>
-  <si>
-    <t>192088794</t>
-  </si>
-  <si>
     <t>427826</t>
   </si>
   <si>
     <t>lisinopril</t>
   </si>
   <si>
-    <t>127404984</t>
-  </si>
-  <si>
-    <t>127405079</t>
+    <t>61000948</t>
+  </si>
+  <si>
+    <t>61001041</t>
   </si>
   <si>
     <t>317918</t>
@@ -963,7 +963,7 @@
     <t>xanthine dehydrogenase/oxidase (homo sapiens)</t>
   </si>
   <si>
-    <t>191544160</t>
+    <t>125354304</t>
   </si>
   <si>
     <t>503946</t>
@@ -972,37 +972,37 @@
     <t>isosorbide dinitrate</t>
   </si>
   <si>
-    <t>124564192</t>
-  </si>
-  <si>
-    <t>132401615</t>
-  </si>
-  <si>
-    <t>122869643</t>
-  </si>
-  <si>
-    <t>125033359</t>
-  </si>
-  <si>
-    <t>136606091</t>
-  </si>
-  <si>
-    <t>120949574</t>
-  </si>
-  <si>
-    <t>204101149</t>
+    <t>70189541</t>
+  </si>
+  <si>
+    <t>54940509</t>
+  </si>
+  <si>
+    <t>137906457</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>121367424</t>
-  </si>
-  <si>
-    <t>135686086</t>
-  </si>
-  <si>
-    <t>117536409</t>
+    <t>51337038</t>
+  </si>
+  <si>
+    <t>54548290</t>
+  </si>
+  <si>
+    <t>58657453</t>
+  </si>
+  <si>
+    <t>66055115</t>
+  </si>
+  <si>
+    <t>56444316</t>
+  </si>
+  <si>
+    <t>69249830</t>
+  </si>
+  <si>
+    <t>61532166</t>
   </si>
   <si>
     <t>4028502</t>
@@ -1011,7 +1011,7 @@
     <t>nucleotides, cyclic</t>
   </si>
   <si>
-    <t>126376728</t>
+    <t>59972534</t>
   </si>
   <si>
     <t>4034467</t>
@@ -1020,7 +1020,7 @@
     <t>deuterium</t>
   </si>
   <si>
-    <t>132690534</t>
+    <t>66346804</t>
   </si>
   <si>
     <t>723506</t>
@@ -1029,13 +1029,13 @@
     <t>nicorandil</t>
   </si>
   <si>
-    <t>138158778</t>
-  </si>
-  <si>
-    <t>130935506</t>
-  </si>
-  <si>
-    <t>148300022</t>
+    <t>81876491</t>
+  </si>
+  <si>
+    <t>71714460</t>
+  </si>
+  <si>
+    <t>64521017</t>
   </si>
   <si>
     <t>365115</t>
@@ -1044,7 +1044,7 @@
     <t>linsidomine</t>
   </si>
   <si>
-    <t>148372992</t>
+    <t>81993292</t>
   </si>
   <si>
     <t>5806034</t>
@@ -1053,7 +1053,7 @@
     <t>doxazosin</t>
   </si>
   <si>
-    <t>173821950</t>
+    <t>107625056</t>
   </si>
   <si>
     <t>789390</t>
@@ -1062,7 +1062,7 @@
     <t>oximes</t>
   </si>
   <si>
-    <t>183863238</t>
+    <t>117722021</t>
   </si>
   <si>
     <t>4034125</t>
@@ -1071,10 +1071,10 @@
     <t>felodipine</t>
   </si>
   <si>
-    <t>161569436</t>
-  </si>
-  <si>
-    <t>161570011</t>
+    <t>95367125</t>
+  </si>
+  <si>
+    <t>95367671</t>
   </si>
   <si>
     <t>4964514</t>
@@ -1083,7 +1083,7 @@
     <t>perindopril</t>
   </si>
   <si>
-    <t>186579719</t>
+    <t>120385240</t>
   </si>
   <si>
     <t>4848818</t>
@@ -1092,7 +1092,7 @@
     <t>prostaglandin f&gt;1&lt; alpha</t>
   </si>
   <si>
-    <t>148124488</t>
+    <t>83627011</t>
   </si>
   <si>
     <t>4028744</t>
@@ -1101,16 +1101,16 @@
     <t>nadolol</t>
   </si>
   <si>
-    <t>145262630</t>
-  </si>
-  <si>
-    <t>151022080</t>
-  </si>
-  <si>
-    <t>145262549</t>
-  </si>
-  <si>
-    <t>162885990</t>
+    <t>78895279</t>
+  </si>
+  <si>
+    <t>96685268</t>
+  </si>
+  <si>
+    <t>78895248</t>
+  </si>
+  <si>
+    <t>84596476</t>
   </si>
   <si>
     <t>2635842</t>
@@ -1119,7 +1119,7 @@
     <t>congener</t>
   </si>
   <si>
-    <t>162782028</t>
+    <t>96578313</t>
   </si>
   <si>
     <t>3761142</t>
@@ -1128,7 +1128,7 @@
     <t>levosimendan</t>
   </si>
   <si>
-    <t>150338054</t>
+    <t>83957709</t>
   </si>
   <si>
     <t>2397012</t>
@@ -1137,7 +1137,7 @@
     <t>saluretic</t>
   </si>
   <si>
-    <t>149247429</t>
+    <t>82821529</t>
   </si>
   <si>
     <t>3215428</t>
@@ -1146,7 +1146,7 @@
     <t>endothelium-dependent relaxing factors</t>
   </si>
   <si>
-    <t>163572138</t>
+    <t>97363819</t>
   </si>
   <si>
     <t>3814895</t>
@@ -1155,7 +1155,7 @@
     <t>prostaglandins, synthetic</t>
   </si>
   <si>
-    <t>175975768</t>
+    <t>109747841</t>
   </si>
   <si>
     <t>327097</t>
@@ -1164,10 +1164,10 @@
     <t>aliskiren</t>
   </si>
   <si>
-    <t>190529599</t>
-  </si>
-  <si>
-    <t>190535285</t>
+    <t>124317265</t>
+  </si>
+  <si>
+    <t>124323122</t>
   </si>
   <si>
     <t>836108</t>
@@ -1176,10 +1176,10 @@
     <t>neurohumors</t>
   </si>
   <si>
-    <t>152701806</t>
-  </si>
-  <si>
-    <t>144429949</t>
+    <t>77949257</t>
+  </si>
+  <si>
+    <t>86319092</t>
   </si>
   <si>
     <t>408534</t>
@@ -1188,7 +1188,7 @@
     <t>nitrates</t>
   </si>
   <si>
-    <t>120781622</t>
+    <t>54433245</t>
   </si>
   <si>
     <t>3134680</t>
@@ -1197,7 +1197,7 @@
     <t>s-nitro-n-acetylpenicillamine</t>
   </si>
   <si>
-    <t>152374402</t>
+    <t>86003418</t>
   </si>
   <si>
     <t>443692</t>
@@ -1206,7 +1206,7 @@
     <t>stereoisomers</t>
   </si>
   <si>
-    <t>193812848</t>
+    <t>127595291</t>
   </si>
   <si>
     <t>4049162</t>
@@ -1215,10 +1215,10 @@
     <t>molsidomine</t>
   </si>
   <si>
-    <t>166063501</t>
-  </si>
-  <si>
-    <t>140273037</t>
+    <t>99860138</t>
+  </si>
+  <si>
+    <t>76214267</t>
   </si>
   <si>
     <t>4042032</t>
@@ -1227,13 +1227,13 @@
     <t>castor oil</t>
   </si>
   <si>
-    <t>89018540</t>
-  </si>
-  <si>
-    <t>145796034</t>
-  </si>
-  <si>
-    <t>133030314</t>
+    <t>17080531</t>
+  </si>
+  <si>
+    <t>66538692</t>
+  </si>
+  <si>
+    <t>79437245</t>
   </si>
   <si>
     <t>2442468</t>
@@ -1242,7 +1242,7 @@
     <t>gtn</t>
   </si>
   <si>
-    <t>133277505</t>
+    <t>66823500</t>
   </si>
   <si>
     <t>305218</t>
@@ -1251,7 +1251,7 @@
     <t>cytotec</t>
   </si>
   <si>
-    <t>172246861</t>
+    <t>106029065</t>
   </si>
   <si>
     <t>3746351</t>
@@ -1260,7 +1260,7 @@
     <t>ly 83583</t>
   </si>
   <si>
-    <t>120296578</t>
+    <t>53948772</t>
   </si>
   <si>
     <t>727232</t>
@@ -1269,7 +1269,7 @@
     <t>ibopamine</t>
   </si>
   <si>
-    <t>161269747</t>
+    <t>95000084</t>
   </si>
   <si>
     <t>3814734</t>
@@ -1278,10 +1278,10 @@
     <t>metipranolol</t>
   </si>
   <si>
-    <t>118540980</t>
-  </si>
-  <si>
-    <t>118540881</t>
+    <t>52272545</t>
+  </si>
+  <si>
+    <t>52272443</t>
   </si>
   <si>
     <t>2435066</t>
@@ -1290,7 +1290,7 @@
     <t>nitrosorbide</t>
   </si>
   <si>
-    <t>156913009</t>
+    <t>90748858</t>
   </si>
   <si>
     <t>4617337</t>
@@ -1299,7 +1299,7 @@
     <t>bupranolol</t>
   </si>
   <si>
-    <t>155382240</t>
+    <t>89111630</t>
   </si>
   <si>
     <t>4048184</t>
@@ -1308,13 +1308,13 @@
     <t>isosorbide</t>
   </si>
   <si>
-    <t>204321206</t>
-  </si>
-  <si>
-    <t>204100860</t>
-  </si>
-  <si>
-    <t>204100862</t>
+    <t>137906050</t>
+  </si>
+  <si>
+    <t>138146821</t>
+  </si>
+  <si>
+    <t>137906051</t>
   </si>
   <si>
     <t>2939681</t>
@@ -1323,7 +1323,7 @@
     <t>transdermal glyceryl trinitrate</t>
   </si>
   <si>
-    <t>149707218</t>
+    <t>83286028</t>
   </si>
   <si>
     <t>3329736</t>
@@ -1332,7 +1332,7 @@
     <t>sustained-release preparations</t>
   </si>
   <si>
-    <t>160501208</t>
+    <t>94216868</t>
   </si>
   <si>
     <t>5610598</t>
@@ -1341,7 +1341,7 @@
     <t>sodium perchlorate</t>
   </si>
   <si>
-    <t>122799199</t>
+    <t>56407623</t>
   </si>
   <si>
     <t>2978124</t>
@@ -1350,7 +1350,7 @@
     <t>hepatoprotective agent</t>
   </si>
   <si>
-    <t>151042551</t>
+    <t>84592509</t>
   </si>
   <si>
     <t>403978</t>
@@ -1359,10 +1359,10 @@
     <t>gemeprost</t>
   </si>
   <si>
-    <t>175967617</t>
-  </si>
-  <si>
-    <t>175967571</t>
+    <t>109788206</t>
+  </si>
+  <si>
+    <t>109788277</t>
   </si>
   <si>
     <t>2421952</t>
@@ -1371,10 +1371,10 @@
     <t>imdur</t>
   </si>
   <si>
-    <t>204321328</t>
-  </si>
-  <si>
-    <t>122668923</t>
+    <t>138146925</t>
+  </si>
+  <si>
+    <t>59793512</t>
   </si>
   <si>
     <t>2396990</t>
@@ -1383,7 +1383,7 @@
     <t>elantan</t>
   </si>
   <si>
-    <t>204321300</t>
+    <t>138146901</t>
   </si>
   <si>
     <t>2433418</t>
@@ -1392,10 +1392,10 @@
     <t>ismo</t>
   </si>
   <si>
-    <t>139435646</t>
-  </si>
-  <si>
-    <t>204321380</t>
+    <t>73023082</t>
+  </si>
+  <si>
+    <t>138146964</t>
   </si>
   <si>
     <t>3727948</t>
@@ -1404,7 +1404,7 @@
     <t>nifedipine oral product</t>
   </si>
   <si>
-    <t>143500265</t>
+    <t>77115772</t>
   </si>
   <si>
     <t>213668</t>
@@ -1413,7 +1413,7 @@
     <t>monoket</t>
   </si>
   <si>
-    <t>204321391</t>
+    <t>138146976</t>
   </si>
   <si>
     <t>3358340</t>
@@ -1422,10 +1422,10 @@
     <t>mono mac 50d</t>
   </si>
   <si>
-    <t>204321615</t>
-  </si>
-  <si>
-    <t>186714006</t>
+    <t>120573903</t>
+  </si>
+  <si>
+    <t>138147179</t>
   </si>
   <si>
     <t>5194597</t>
@@ -1434,7 +1434,7 @@
     <t>monizid</t>
   </si>
   <si>
-    <t>204321223</t>
+    <t>138146833</t>
   </si>
   <si>
     <t>3745226</t>
@@ -1443,7 +1443,7 @@
     <t>olicard 40</t>
   </si>
   <si>
-    <t>204321248</t>
+    <t>138146853</t>
   </si>
   <si>
     <t>3763307</t>
@@ -1452,7 +1452,7 @@
     <t>5-ismn durules</t>
   </si>
   <si>
-    <t>204321238</t>
+    <t>138146843</t>
   </si>
   <si>
     <t>3098155</t>
@@ -1461,7 +1461,7 @@
     <t>olicard-retard</t>
   </si>
   <si>
-    <t>204321288</t>
+    <t>138146890</t>
   </si>
   <si>
     <t>2487097</t>
@@ -1470,7 +1470,7 @@
     <t>mononit</t>
   </si>
   <si>
-    <t>204321536</t>
+    <t>138147100</t>
   </si>
   <si>
     <t>3807799</t>
@@ -1479,7 +1479,7 @@
     <t>nitroglycerin topical ointment [nitrol]</t>
   </si>
   <si>
-    <t>156996385</t>
+    <t>90804052</t>
   </si>
   <si>
     <t>3062321</t>
@@ -1488,10 +1488,10 @@
     <t>nitrate-based vasodilating agent</t>
   </si>
   <si>
-    <t>204480490</t>
-  </si>
-  <si>
-    <t>171139142</t>
+    <t>138294498</t>
+  </si>
+  <si>
+    <t>104935999</t>
   </si>
   <si>
     <t>2433494</t>
@@ -1500,7 +1500,7 @@
     <t>nitroglycerin transdermal patch</t>
   </si>
   <si>
-    <t>176312860</t>
+    <t>110182977</t>
   </si>
   <si>
     <t>392410</t>
@@ -1509,10 +1509,10 @@
     <t>isosorbide-2-mononitrate</t>
   </si>
   <si>
-    <t>156158569</t>
-  </si>
-  <si>
-    <t>156158627</t>
+    <t>89886812</t>
+  </si>
+  <si>
+    <t>89886769</t>
   </si>
   <si>
     <t>3253825</t>
@@ -1521,25 +1521,25 @@
     <t>24 hr isosorbide mononitrate 60 mg extended release oral tablet</t>
   </si>
   <si>
-    <t>204321631</t>
-  </si>
-  <si>
-    <t>204321628</t>
+    <t>138147188</t>
   </si>
   <si>
     <t>is ingredient of</t>
   </si>
   <si>
+    <t>138147191</t>
+  </si>
+  <si>
     <t>2533681</t>
   </si>
   <si>
     <t>isosorbide mononitrate 10 mg oral tablet</t>
   </si>
   <si>
-    <t>204321550</t>
-  </si>
-  <si>
-    <t>204321552</t>
+    <t>138147114</t>
+  </si>
+  <si>
+    <t>138147112</t>
   </si>
   <si>
     <t>837251</t>
@@ -1548,10 +1548,10 @@
     <t>isosorbide mononitrate 20 mg oral tablet</t>
   </si>
   <si>
-    <t>204321583</t>
-  </si>
-  <si>
-    <t>204321585</t>
+    <t>138147143</t>
+  </si>
+  <si>
+    <t>138147145</t>
   </si>
   <si>
     <t>3732044</t>
@@ -1560,7 +1560,7 @@
     <t>modified release isosorbide mononitrate</t>
   </si>
   <si>
-    <t>204321275</t>
+    <t>138146874</t>
   </si>
   <si>
     <t>3194800</t>
@@ -1569,7 +1569,7 @@
     <t>isosorbide mononitrate 40 mg oral tablet</t>
   </si>
   <si>
-    <t>204321646</t>
+    <t>138147203</t>
   </si>
   <si>
     <t>2397643</t>
@@ -1578,10 +1578,10 @@
     <t>elantan la</t>
   </si>
   <si>
-    <t>204321313</t>
-  </si>
-  <si>
-    <t>139618273</t>
+    <t>138146915</t>
+  </si>
+  <si>
+    <t>73267054</t>
   </si>
   <si>
     <t>2422632</t>
@@ -1590,7 +1590,7 @@
     <t>monit sr</t>
   </si>
   <si>
-    <t>204321341</t>
+    <t>138146933</t>
   </si>
   <si>
     <t>2386450</t>
@@ -1599,7 +1599,7 @@
     <t>monomax sr</t>
   </si>
   <si>
-    <t>204321351</t>
+    <t>138146945</t>
   </si>
   <si>
     <t>2429797</t>
@@ -1608,7 +1608,7 @@
     <t>isosorbide mononitrate 20 mg oral tablet [ismo]</t>
   </si>
   <si>
-    <t>204321364</t>
+    <t>138146953</t>
   </si>
   <si>
     <t>2427060</t>
@@ -1617,7 +1617,7 @@
     <t>isosorbide mononitrate 20 mg oral tablet [monoket]</t>
   </si>
   <si>
-    <t>204321411</t>
+    <t>138146999</t>
   </si>
   <si>
     <t>2426875</t>
@@ -1626,7 +1626,7 @@
     <t>isosorbide mononitrate 10 mg oral tablet [monoket]</t>
   </si>
   <si>
-    <t>204321401</t>
+    <t>138146988</t>
   </si>
   <si>
     <t>2426494</t>
@@ -1635,7 +1635,7 @@
     <t>24 hr isosorbide mononitrate 120 mg extended release oral tablet [imdur]</t>
   </si>
   <si>
-    <t>204321421</t>
+    <t>138147009</t>
   </si>
   <si>
     <t>2361245</t>
@@ -1644,7 +1644,7 @@
     <t>24 hr isosorbide mononitrate 30 mg extended release oral tablet [imdur]</t>
   </si>
   <si>
-    <t>204321431</t>
+    <t>138147018</t>
   </si>
   <si>
     <t>2020363</t>
@@ -1653,7 +1653,7 @@
     <t>24 hr isosorbide mononitrate 60 mg extended release oral tablet [imdur]</t>
   </si>
   <si>
-    <t>204321665</t>
+    <t>138147226</t>
   </si>
   <si>
     <t>2486454</t>
@@ -1662,10 +1662,10 @@
     <t>24 hr isosorbide mononitrate 120 mg extended release oral tablet</t>
   </si>
   <si>
-    <t>204321576</t>
-  </si>
-  <si>
-    <t>204321570</t>
+    <t>138147131</t>
+  </si>
+  <si>
+    <t>138147128</t>
   </si>
   <si>
     <t>2482897</t>
@@ -1674,10 +1674,10 @@
     <t>24 hr isosorbide mononitrate 30 mg extended release oral tablet</t>
   </si>
   <si>
-    <t>204321604</t>
-  </si>
-  <si>
-    <t>204321601</t>
+    <t>138147166</t>
+  </si>
+  <si>
+    <t>138147163</t>
   </si>
   <si>
     <t>3362079</t>
@@ -1686,7 +1686,7 @@
     <t>modisal la 25</t>
   </si>
   <si>
-    <t>204321515</t>
+    <t>138147077</t>
   </si>
   <si>
     <t>3361917</t>
@@ -1695,7 +1695,7 @@
     <t>modisal la 50</t>
   </si>
   <si>
-    <t>204321524</t>
+    <t>138147088</t>
   </si>
   <si>
     <t>3358946</t>
@@ -1704,7 +1704,7 @@
     <t>monomax sr 40</t>
   </si>
   <si>
-    <t>204321453</t>
+    <t>138147040</t>
   </si>
   <si>
     <t>2440886</t>
@@ -1713,7 +1713,7 @@
     <t>modisal 60 xl</t>
   </si>
   <si>
-    <t>204321441</t>
+    <t>138147028</t>
   </si>
   <si>
     <t>2440309</t>
@@ -1722,7 +1722,7 @@
     <t>monomax sr 60</t>
   </si>
   <si>
-    <t>204321466</t>
+    <t>138147051</t>
   </si>
   <si>
     <t>2436308</t>
@@ -1731,7 +1731,7 @@
     <t>monosorb xl 60</t>
   </si>
   <si>
-    <t>204321491</t>
+    <t>138147060</t>
   </si>
   <si>
     <t>2787921</t>
@@ -1740,7 +1740,7 @@
     <t>monosordil</t>
   </si>
   <si>
-    <t>204321654</t>
+    <t>138147214</t>
   </si>
   <si>
     <t>2435916</t>
@@ -1749,7 +1749,7 @@
     <t>isosorbide mononitrate 2</t>
   </si>
   <si>
-    <t>204321503</t>
+    <t>138147070</t>
   </si>
   <si>
     <t>4041249</t>
@@ -1761,7 +1761,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>127382137</t>
+    <t>60969983</t>
   </si>
   <si>
     <t>is not location of</t>
@@ -1773,7 +1773,7 @@
     <t>endothelial cells</t>
   </si>
   <si>
-    <t>135770071</t>
+    <t>71898908</t>
   </si>
   <si>
     <t>affects</t>
@@ -1785,7 +1785,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>118148545</t>
+    <t>51918795</t>
   </si>
   <si>
     <t>is location of</t>
@@ -1797,7 +1797,7 @@
     <t>vagina</t>
   </si>
   <si>
-    <t>151300966</t>
+    <t>84922534</t>
   </si>
   <si>
     <t>544027</t>
@@ -1806,7 +1806,7 @@
     <t>kidney</t>
   </si>
   <si>
-    <t>162885597</t>
+    <t>96684872</t>
   </si>
   <si>
     <t>4035048</t>
@@ -1815,7 +1815,7 @@
     <t>heart</t>
   </si>
   <si>
-    <t>126699624</t>
+    <t>60286362</t>
   </si>
   <si>
     <t>4042269</t>
@@ -1824,7 +1824,7 @@
     <t>blood vessel</t>
   </si>
   <si>
-    <t>160846027</t>
+    <t>94652474</t>
   </si>
   <si>
     <t>2863639</t>
@@ -1833,7 +1833,7 @@
     <t>peripheral blood mononuclear cell (cell)</t>
   </si>
   <si>
-    <t>191437423</t>
+    <t>125248089</t>
   </si>
   <si>
     <t>5235157</t>
@@ -1842,25 +1842,25 @@
     <t>aorta</t>
   </si>
   <si>
-    <t>130175016</t>
+    <t>63813128</t>
+  </si>
+  <si>
+    <t>89886213</t>
+  </si>
+  <si>
+    <t>63813830</t>
   </si>
   <si>
     <t>augments</t>
   </si>
   <si>
-    <t>156158126</t>
-  </si>
-  <si>
-    <t>130174407</t>
-  </si>
-  <si>
     <t>4042257</t>
   </si>
   <si>
     <t>blood platelets</t>
   </si>
   <si>
-    <t>142578494</t>
+    <t>76236148</t>
   </si>
   <si>
     <t>244127</t>
@@ -1869,7 +1869,7 @@
     <t>left ventricular structure</t>
   </si>
   <si>
-    <t>172550757</t>
+    <t>106331502</t>
   </si>
   <si>
     <t>289450</t>
@@ -1878,10 +1878,10 @@
     <t>coronary artery</t>
   </si>
   <si>
-    <t>132714473</t>
-  </si>
-  <si>
-    <t>132714773</t>
+    <t>66226546</t>
+  </si>
+  <si>
+    <t>66226829</t>
   </si>
   <si>
     <t>4027084</t>
@@ -1890,7 +1890,7 @@
     <t>optic nerve</t>
   </si>
   <si>
-    <t>137305149</t>
+    <t>70951070</t>
   </si>
   <si>
     <t>616785</t>
@@ -1899,7 +1899,7 @@
     <t>right atrial structure</t>
   </si>
   <si>
-    <t>127342588</t>
+    <t>60898412</t>
   </si>
   <si>
     <t>disrupts</t>
@@ -1911,7 +1911,7 @@
     <t>muscle, smooth, vascular</t>
   </si>
   <si>
-    <t>177002795</t>
+    <t>110826131</t>
   </si>
   <si>
     <t>4049094</t>
@@ -1920,7 +1920,7 @@
     <t>mesenteric arteries</t>
   </si>
   <si>
-    <t>118824572</t>
+    <t>52560184</t>
   </si>
   <si>
     <t>3764949</t>
@@ -1929,7 +1929,7 @@
     <t>stratum corneum</t>
   </si>
   <si>
-    <t>141377303</t>
+    <t>74991589</t>
   </si>
   <si>
     <t>3778348</t>
@@ -1938,7 +1938,7 @@
     <t>structure of anulus fibrosus of aorta</t>
   </si>
   <si>
-    <t>136605758</t>
+    <t>70189231</t>
   </si>
   <si>
     <t>3816087</t>
@@ -1947,13 +1947,13 @@
     <t>vena cava structure</t>
   </si>
   <si>
-    <t>130174520</t>
-  </si>
-  <si>
-    <t>130175061</t>
-  </si>
-  <si>
-    <t>130175193</t>
+    <t>63813976</t>
+  </si>
+  <si>
+    <t>63813226</t>
+  </si>
+  <si>
+    <t>63813900</t>
   </si>
   <si>
     <t>2981174</t>
@@ -1962,7 +1962,7 @@
     <t>uterus - cervix (mmhcc)</t>
   </si>
   <si>
-    <t>180441708</t>
+    <t>114222282</t>
   </si>
   <si>
     <t>715043</t>
@@ -1971,7 +1971,7 @@
     <t>superior mesenteric artery structure</t>
   </si>
   <si>
-    <t>183864019</t>
+    <t>117722768</t>
   </si>
   <si>
     <t>275855</t>
@@ -1980,7 +1980,7 @@
     <t>chorioallantoic membrane</t>
   </si>
   <si>
-    <t>124309320</t>
+    <t>57886147</t>
   </si>
   <si>
     <t>3781934</t>
@@ -1989,7 +1989,7 @@
     <t>skin structure of abdomen</t>
   </si>
   <si>
-    <t>141377099</t>
+    <t>74991419</t>
   </si>
   <si>
     <t>3130063</t>
@@ -1998,7 +1998,7 @@
     <t>cardiac sympathetic nerve</t>
   </si>
   <si>
-    <t>148300104</t>
+    <t>81876549</t>
   </si>
   <si>
     <t>2792340</t>
@@ -2010,7 +2010,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>134831408</t>
+    <t>68474929</t>
   </si>
   <si>
     <t>2792213</t>
@@ -2019,7 +2019,7 @@
     <t>fgfr3 (homo sapiens)</t>
   </si>
   <si>
-    <t>178408599</t>
+    <t>112199463</t>
   </si>
   <si>
     <t>1656913</t>
@@ -2028,7 +2028,7 @@
     <t>wdtc1 (homo sapiens)</t>
   </si>
   <si>
-    <t>182209290</t>
+    <t>116011435</t>
   </si>
   <si>
     <t>3017197</t>
@@ -2037,7 +2037,16 @@
     <t>ercc8 (homo sapiens)</t>
   </si>
   <si>
-    <t>160845344</t>
+    <t>94651821</t>
+  </si>
+  <si>
+    <t>1654853</t>
+  </si>
+  <si>
+    <t>pafah1b1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17080669</t>
   </si>
   <si>
     <t>3017725</t>
@@ -2046,16 +2055,7 @@
     <t>dsc3 (homo sapiens)</t>
   </si>
   <si>
-    <t>170865632</t>
-  </si>
-  <si>
-    <t>1654853</t>
-  </si>
-  <si>
-    <t>pafah1b1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>89018596</t>
+    <t>104651968</t>
   </si>
   <si>
     <t>2963244</t>
@@ -2064,7 +2064,7 @@
     <t>aldh3a1 (homo sapiens)</t>
   </si>
   <si>
-    <t>127015618</t>
+    <t>60614094</t>
   </si>
   <si>
     <t>2786698</t>
@@ -2073,7 +2073,7 @@
     <t>gucy1a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111638182</t>
+    <t>45445386</t>
   </si>
   <si>
     <t>2940375</t>
@@ -2085,7 +2085,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>138976465</t>
+    <t>72530195</t>
   </si>
   <si>
     <t>treats</t>
@@ -2097,22 +2097,22 @@
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>79531815</t>
-  </si>
-  <si>
-    <t>170987558</t>
+    <t>104773537</t>
   </si>
   <si>
     <t>does not prevent</t>
   </si>
   <si>
+    <t>13257288</t>
+  </si>
+  <si>
     <t>3072277</t>
   </si>
   <si>
     <t>antimicrobial susceptibility</t>
   </si>
   <si>
-    <t>186785843</t>
+    <t>120574319</t>
   </si>
   <si>
     <t>4040861</t>
@@ -2121,7 +2121,7 @@
     <t>complication</t>
   </si>
   <si>
-    <t>156572148</t>
+    <t>90295563</t>
   </si>
   <si>
     <t>prevents</t>
@@ -2133,7 +2133,7 @@
     <t>pain</t>
   </si>
   <si>
-    <t>130698463</t>
+    <t>64257803</t>
   </si>
   <si>
     <t>3131611</t>
@@ -2142,16 +2142,16 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>142361883</t>
-  </si>
-  <si>
-    <t>161570157</t>
+    <t>82507507</t>
+  </si>
+  <si>
+    <t>95367763</t>
   </si>
   <si>
     <t>does not inhibit</t>
   </si>
   <si>
-    <t>146988051</t>
+    <t>76020589</t>
   </si>
   <si>
     <t>3007189</t>
@@ -2160,7 +2160,7 @@
     <t>myocardial infarction</t>
   </si>
   <si>
-    <t>79531932</t>
+    <t>13257502</t>
   </si>
   <si>
     <t>2506281</t>
@@ -2169,13 +2169,13 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>154451760</t>
+    <t>88167913</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>169792179</t>
+    <t>103574402</t>
   </si>
   <si>
     <t>3779305</t>
@@ -2184,10 +2184,10 @@
     <t>consumption-archaic term for tb</t>
   </si>
   <si>
-    <t>129929200</t>
-  </si>
-  <si>
-    <t>155382965</t>
+    <t>89112457</t>
+  </si>
+  <si>
+    <t>63562686</t>
   </si>
   <si>
     <t>1614515</t>
@@ -2196,10 +2196,10 @@
     <t>coronary arteriosclerosis</t>
   </si>
   <si>
-    <t>119691716</t>
-  </si>
-  <si>
-    <t>119691393</t>
+    <t>53428637</t>
+  </si>
+  <si>
+    <t>53428271</t>
   </si>
   <si>
     <t>4048316</t>
@@ -2208,16 +2208,16 @@
     <t>heart failure</t>
   </si>
   <si>
-    <t>128186612</t>
+    <t>51764539</t>
+  </si>
+  <si>
+    <t>61739062</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>122863503</t>
-  </si>
-  <si>
-    <t>117988059</t>
+    <t>59965738</t>
   </si>
   <si>
     <t>447781</t>
@@ -2226,7 +2226,7 @@
     <t>fibrosis</t>
   </si>
   <si>
-    <t>141684543</t>
+    <t>75207304</t>
   </si>
   <si>
     <t>432860</t>
@@ -2235,7 +2235,7 @@
     <t>arteriosclerosis</t>
   </si>
   <si>
-    <t>166544699</t>
+    <t>100353001</t>
   </si>
   <si>
     <t>4049113</t>
@@ -2244,7 +2244,7 @@
     <t>ischemia</t>
   </si>
   <si>
-    <t>130336059</t>
+    <t>63930027</t>
   </si>
   <si>
     <t>401484</t>
@@ -2253,10 +2253,10 @@
     <t>oxidative stress</t>
   </si>
   <si>
-    <t>190146790</t>
-  </si>
-  <si>
-    <t>157814773</t>
+    <t>91623559</t>
+  </si>
+  <si>
+    <t>123932558</t>
   </si>
   <si>
     <t>2822765</t>
@@ -2265,7 +2265,7 @@
     <t>kidney failure</t>
   </si>
   <si>
-    <t>137175994</t>
+    <t>70850930</t>
   </si>
   <si>
     <t>4048474</t>
@@ -2274,13 +2274,13 @@
     <t>hemorrhage</t>
   </si>
   <si>
-    <t>173026975</t>
-  </si>
-  <si>
-    <t>79531792</t>
-  </si>
-  <si>
-    <t>182508633</t>
+    <t>116311087</t>
+  </si>
+  <si>
+    <t>106807059</t>
+  </si>
+  <si>
+    <t>13257250</t>
   </si>
   <si>
     <t>476523</t>
@@ -2289,7 +2289,7 @@
     <t>cardiovascular diseases</t>
   </si>
   <si>
-    <t>171772976</t>
+    <t>105574336</t>
   </si>
   <si>
     <t>3202301</t>
@@ -2298,16 +2298,16 @@
     <t>systemic arterial pressure</t>
   </si>
   <si>
-    <t>153136227</t>
-  </si>
-  <si>
-    <t>144343906</t>
-  </si>
-  <si>
-    <t>124564582</t>
-  </si>
-  <si>
-    <t>121454534</t>
+    <t>86811410</t>
+  </si>
+  <si>
+    <t>55067595</t>
+  </si>
+  <si>
+    <t>61532455</t>
+  </si>
+  <si>
+    <t>77976004</t>
   </si>
   <si>
     <t>4048530</t>
@@ -2316,7 +2316,7 @@
     <t>hypotension</t>
   </si>
   <si>
-    <t>79531906</t>
+    <t>13257433</t>
   </si>
   <si>
     <t>indicates</t>
@@ -2328,7 +2328,7 @@
     <t>congestive heart failure</t>
   </si>
   <si>
-    <t>162781906</t>
+    <t>96578223</t>
   </si>
   <si>
     <t>4049133</t>
@@ -2337,7 +2337,7 @@
     <t>hyperplasia</t>
   </si>
   <si>
-    <t>190029060</t>
+    <t>123814646</t>
   </si>
   <si>
     <t>220950</t>
@@ -2346,7 +2346,7 @@
     <t>kidney failure, acute</t>
   </si>
   <si>
-    <t>79529131</t>
+    <t>13253346</t>
   </si>
   <si>
     <t>116048</t>
@@ -2355,10 +2355,10 @@
     <t>heart diseases</t>
   </si>
   <si>
-    <t>139141471</t>
-  </si>
-  <si>
-    <t>125862294</t>
+    <t>62714105</t>
+  </si>
+  <si>
+    <t>75184332</t>
   </si>
   <si>
     <t>4766990</t>
@@ -2367,16 +2367,16 @@
     <t>myocardial ischemia</t>
   </si>
   <si>
-    <t>122858748</t>
-  </si>
-  <si>
-    <t>152701881</t>
-  </si>
-  <si>
-    <t>79531943</t>
-  </si>
-  <si>
-    <t>127341984</t>
+    <t>13257536</t>
+  </si>
+  <si>
+    <t>86319178</t>
+  </si>
+  <si>
+    <t>59961374</t>
+  </si>
+  <si>
+    <t>60897853</t>
   </si>
   <si>
     <t>3209190</t>
@@ -2385,7 +2385,7 @@
     <t>morphologic alteration, nos</t>
   </si>
   <si>
-    <t>192224788</t>
+    <t>126011632</t>
   </si>
   <si>
     <t>603590</t>
@@ -2394,10 +2394,10 @@
     <t>headache</t>
   </si>
   <si>
-    <t>132450078</t>
-  </si>
-  <si>
-    <t>79529562</t>
+    <t>66054566</t>
+  </si>
+  <si>
+    <t>13254002</t>
   </si>
   <si>
     <t>617264</t>
@@ -2406,7 +2406,7 @@
     <t>diarrhea</t>
   </si>
   <si>
-    <t>79529335</t>
+    <t>13253707</t>
   </si>
   <si>
     <t>5699005</t>
@@ -2415,7 +2415,16 @@
     <t>falls</t>
   </si>
   <si>
-    <t>119691940</t>
+    <t>53428756</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>13253221</t>
   </si>
   <si>
     <t>4047603</t>
@@ -2424,7 +2433,7 @@
     <t>pulmonary hypertension</t>
   </si>
   <si>
-    <t>123637941</t>
+    <t>57224708</t>
   </si>
   <si>
     <t>3116817</t>
@@ -2433,16 +2442,7 @@
     <t>bradycardia</t>
   </si>
   <si>
-    <t>79529313</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>79529072</t>
+    <t>13253674</t>
   </si>
   <si>
     <t>5699190</t>
@@ -2451,10 +2451,10 @@
     <t>acute myocardial infarction</t>
   </si>
   <si>
-    <t>120331440</t>
-  </si>
-  <si>
-    <t>122861512</t>
+    <t>59964173</t>
+  </si>
+  <si>
+    <t>53980284</t>
   </si>
   <si>
     <t>2051366</t>
@@ -2463,7 +2463,16 @@
     <t>acute kidney injury</t>
   </si>
   <si>
-    <t>79529129</t>
+    <t>13253342</t>
+  </si>
+  <si>
+    <t>4034175</t>
+  </si>
+  <si>
+    <t>glaucoma</t>
+  </si>
+  <si>
+    <t>91916612</t>
   </si>
   <si>
     <t>2822881</t>
@@ -2472,16 +2481,7 @@
     <t>acute kidney insufficiency</t>
   </si>
   <si>
-    <t>79529127</t>
-  </si>
-  <si>
-    <t>4034175</t>
-  </si>
-  <si>
-    <t>glaucoma</t>
-  </si>
-  <si>
-    <t>158040406</t>
+    <t>13253338</t>
   </si>
   <si>
     <t>5131040</t>
@@ -2490,7 +2490,7 @@
     <t>pulmonary edema</t>
   </si>
   <si>
-    <t>122863173</t>
+    <t>59965484</t>
   </si>
   <si>
     <t>4736575</t>
@@ -2499,7 +2499,7 @@
     <t>pulmonary embolism</t>
   </si>
   <si>
-    <t>79532200</t>
+    <t>13257861</t>
   </si>
   <si>
     <t>3761683</t>
@@ -2508,7 +2508,7 @@
     <t>erectile dysfunction</t>
   </si>
   <si>
-    <t>133307728</t>
+    <t>66968258</t>
   </si>
   <si>
     <t>171892</t>
@@ -2517,7 +2517,7 @@
     <t>hemicrania</t>
   </si>
   <si>
-    <t>79529589</t>
+    <t>13254030</t>
   </si>
   <si>
     <t>2441406</t>
@@ -2526,7 +2526,7 @@
     <t>orthostatic headache</t>
   </si>
   <si>
-    <t>79529587</t>
+    <t>13254027</t>
   </si>
   <si>
     <t>450724</t>
@@ -2535,7 +2535,7 @@
     <t>throbbing headache</t>
   </si>
   <si>
-    <t>79529568</t>
+    <t>13254010</t>
   </si>
   <si>
     <t>3123986</t>
@@ -2544,7 +2544,7 @@
     <t>bilateral headache</t>
   </si>
   <si>
-    <t>79529581</t>
+    <t>13254021</t>
   </si>
   <si>
     <t>3026435</t>
@@ -2553,7 +2553,7 @@
     <t>generalized headache</t>
   </si>
   <si>
-    <t>79529565</t>
+    <t>13254004</t>
   </si>
   <si>
     <t>2440978</t>
@@ -2562,7 +2562,7 @@
     <t>sharp headache</t>
   </si>
   <si>
-    <t>79529584</t>
+    <t>13254024</t>
   </si>
   <si>
     <t>762995</t>
@@ -2571,7 +2571,7 @@
     <t>vertex headache</t>
   </si>
   <si>
-    <t>79529576</t>
+    <t>13254016</t>
   </si>
   <si>
     <t>3815615</t>
@@ -2580,7 +2580,7 @@
     <t>ocular headache</t>
   </si>
   <si>
-    <t>79529579</t>
+    <t>13254019</t>
   </si>
   <si>
     <t>240171</t>
@@ -2589,7 +2589,7 @@
     <t>periorbital headache</t>
   </si>
   <si>
-    <t>79529574</t>
+    <t>13254013</t>
   </si>
   <si>
     <t>483508</t>
@@ -2598,7 +2598,7 @@
     <t>retro-ocular headache</t>
   </si>
   <si>
-    <t>79529571</t>
+    <t>13254007</t>
   </si>
   <si>
     <t>2612598</t>
@@ -2607,10 +2607,19 @@
     <t>endothelial dysfunction</t>
   </si>
   <si>
-    <t>180542178</t>
-  </si>
-  <si>
-    <t>174122014</t>
+    <t>107911564</t>
+  </si>
+  <si>
+    <t>114339983</t>
+  </si>
+  <si>
+    <t>577908</t>
+  </si>
+  <si>
+    <t>tachycardia, ventricular</t>
+  </si>
+  <si>
+    <t>13257999</t>
   </si>
   <si>
     <t>5268034</t>
@@ -2619,16 +2628,7 @@
     <t>withdrawal symptoms</t>
   </si>
   <si>
-    <t>79532262</t>
-  </si>
-  <si>
-    <t>577908</t>
-  </si>
-  <si>
-    <t>tachycardia, ventricular</t>
-  </si>
-  <si>
-    <t>79532303</t>
+    <t>13257942</t>
   </si>
   <si>
     <t>2811301</t>
@@ -2637,7 +2637,7 @@
     <t>essential hypertension</t>
   </si>
   <si>
-    <t>167469299</t>
+    <t>101262690</t>
   </si>
   <si>
     <t>458837</t>
@@ -2646,7 +2646,7 @@
     <t>benign prostatic hypertrophy</t>
   </si>
   <si>
-    <t>173822073</t>
+    <t>107625146</t>
   </si>
   <si>
     <t>4048850</t>
@@ -2655,7 +2655,16 @@
     <t>left-sided heart failure</t>
   </si>
   <si>
-    <t>122861446</t>
+    <t>59964097</t>
+  </si>
+  <si>
+    <t>554904</t>
+  </si>
+  <si>
+    <t>left ventricular hypertrophy</t>
+  </si>
+  <si>
+    <t>118284376</t>
   </si>
   <si>
     <t>457258</t>
@@ -2664,7 +2673,7 @@
     <t>substance withdrawal syndrome</t>
   </si>
   <si>
-    <t>79532264</t>
+    <t>13257944</t>
   </si>
   <si>
     <t>359353</t>
@@ -2673,16 +2682,7 @@
     <t>drug withdrawal symptoms</t>
   </si>
   <si>
-    <t>79532260</t>
-  </si>
-  <si>
-    <t>554904</t>
-  </si>
-  <si>
-    <t>left ventricular hypertrophy</t>
-  </si>
-  <si>
-    <t>184502157</t>
+    <t>13257938</t>
   </si>
   <si>
     <t>5162323</t>
@@ -2691,7 +2691,7 @@
     <t>orthostasis</t>
   </si>
   <si>
-    <t>146152948</t>
+    <t>79785264</t>
   </si>
   <si>
     <t>793846</t>
@@ -2700,10 +2700,10 @@
     <t>varicosity</t>
   </si>
   <si>
-    <t>172771587</t>
-  </si>
-  <si>
-    <t>179702606</t>
+    <t>113575925</t>
+  </si>
+  <si>
+    <t>106663493</t>
   </si>
   <si>
     <t>3760772</t>
@@ -2712,7 +2712,7 @@
     <t>ventricular dysfunction, left</t>
   </si>
   <si>
-    <t>125317829</t>
+    <t>58878615</t>
   </si>
   <si>
     <t>3117088</t>
@@ -2721,7 +2721,7 @@
     <t>mean blood pressure</t>
   </si>
   <si>
-    <t>180326368</t>
+    <t>114154312</t>
   </si>
   <si>
     <t>4845355</t>
@@ -2730,10 +2730,10 @@
     <t>angina pectoris</t>
   </si>
   <si>
-    <t>79529175</t>
-  </si>
-  <si>
-    <t>122653273</t>
+    <t>13253421</t>
+  </si>
+  <si>
+    <t>59779682</t>
   </si>
   <si>
     <t>4034797</t>
@@ -2742,7 +2742,7 @@
     <t>hypertension, portal</t>
   </si>
   <si>
-    <t>79531875</t>
+    <t>13257380</t>
   </si>
   <si>
     <t>5699817</t>
@@ -2751,7 +2751,7 @@
     <t>vasospasm</t>
   </si>
   <si>
-    <t>122859823</t>
+    <t>59962623</t>
   </si>
   <si>
     <t>4035388</t>
@@ -2760,7 +2760,7 @@
     <t>fasting</t>
   </si>
   <si>
-    <t>189797737</t>
+    <t>123582842</t>
   </si>
   <si>
     <t>460231</t>
@@ -2769,7 +2769,7 @@
     <t>recovery of function</t>
   </si>
   <si>
-    <t>117542102</t>
+    <t>51343356</t>
   </si>
   <si>
     <t>2510916</t>
@@ -2778,7 +2778,7 @@
     <t>hypotensive</t>
   </si>
   <si>
-    <t>133269487</t>
+    <t>66815518</t>
   </si>
   <si>
     <t>131364</t>
@@ -2787,7 +2787,7 @@
     <t>schistosomiasis</t>
   </si>
   <si>
-    <t>137862647</t>
+    <t>71453271</t>
   </si>
   <si>
     <t>3109138</t>
@@ -2796,7 +2796,7 @@
     <t>pulmonary thromboembolisms</t>
   </si>
   <si>
-    <t>79532198</t>
+    <t>13257859</t>
   </si>
   <si>
     <t>222120</t>
@@ -2805,7 +2805,7 @@
     <t>coronary artery vasospasm</t>
   </si>
   <si>
-    <t>122859509</t>
+    <t>59962207</t>
   </si>
   <si>
     <t>5806848</t>
@@ -2814,7 +2814,7 @@
     <t>coronary occlusion</t>
   </si>
   <si>
-    <t>127404501</t>
+    <t>61000451</t>
   </si>
   <si>
     <t>297837</t>
@@ -2823,7 +2823,7 @@
     <t>osteoporosis, postmenopausal</t>
   </si>
   <si>
-    <t>161874820</t>
+    <t>95737518</t>
   </si>
   <si>
     <t>3729730</t>
@@ -2832,10 +2832,10 @@
     <t>stable angina</t>
   </si>
   <si>
-    <t>119902919</t>
-  </si>
-  <si>
-    <t>141285279</t>
+    <t>53559739</t>
+  </si>
+  <si>
+    <t>74954285</t>
   </si>
   <si>
     <t>4035125</t>
@@ -2844,10 +2844,10 @@
     <t>esophageal varices</t>
   </si>
   <si>
-    <t>179696168</t>
-  </si>
-  <si>
-    <t>79529384</t>
+    <t>113568766</t>
+  </si>
+  <si>
+    <t>13253775</t>
   </si>
   <si>
     <t>4048187</t>
@@ -2856,7 +2856,7 @@
     <t>transient ischemia</t>
   </si>
   <si>
-    <t>133975173</t>
+    <t>70225750</t>
   </si>
   <si>
     <t>3731106</t>
@@ -2865,7 +2865,7 @@
     <t>acute hemorrhage</t>
   </si>
   <si>
-    <t>161550568</t>
+    <t>95348734</t>
   </si>
   <si>
     <t>3116818</t>
@@ -2874,7 +2874,7 @@
     <t>cardiac index</t>
   </si>
   <si>
-    <t>191201999</t>
+    <t>124991273</t>
   </si>
   <si>
     <t>3092044</t>
@@ -2883,7 +2883,7 @@
     <t>employed</t>
   </si>
   <si>
-    <t>180490139</t>
+    <t>114286045</t>
   </si>
   <si>
     <t>2394090</t>
@@ -2892,7 +2892,7 @@
     <t>lower urinary tract symptoms</t>
   </si>
   <si>
-    <t>173822042</t>
+    <t>107625117</t>
   </si>
   <si>
     <t>2952348</t>
@@ -2901,7 +2901,7 @@
     <t>cesarean section (finding)</t>
   </si>
   <si>
-    <t>153796127</t>
+    <t>87543692</t>
   </si>
   <si>
     <t>2343055</t>
@@ -2910,7 +2910,7 @@
     <t>st segment elevation (finding)</t>
   </si>
   <si>
-    <t>134044901</t>
+    <t>67695543</t>
   </si>
   <si>
     <t>3781256</t>
@@ -2919,10 +2919,10 @@
     <t>microvascular angina</t>
   </si>
   <si>
-    <t>188842732</t>
-  </si>
-  <si>
-    <t>188929249</t>
+    <t>122736908</t>
+  </si>
+  <si>
+    <t>122650969</t>
   </si>
   <si>
     <t>3724733</t>
@@ -2931,7 +2931,7 @@
     <t>common migraine</t>
   </si>
   <si>
-    <t>79531920</t>
+    <t>13257469</t>
   </si>
   <si>
     <t>3758941</t>
@@ -2940,7 +2940,7 @@
     <t>chronic congestive heart failure</t>
   </si>
   <si>
-    <t>128914597</t>
+    <t>65601517</t>
   </si>
   <si>
     <t>4034383</t>
@@ -2949,7 +2949,7 @@
     <t>gastric varix</t>
   </si>
   <si>
-    <t>79529382</t>
+    <t>13253778</t>
   </si>
   <si>
     <t>3814888</t>
@@ -2958,7 +2958,7 @@
     <t>pregnancy, prolonged</t>
   </si>
   <si>
-    <t>153797277</t>
+    <t>87545000</t>
   </si>
   <si>
     <t>3740170</t>
@@ -2967,7 +2967,7 @@
     <t>systolic hypertension</t>
   </si>
   <si>
-    <t>183911189</t>
+    <t>117711594</t>
   </si>
   <si>
     <t>2342858</t>
@@ -2976,10 +2976,10 @@
     <t>st segment depression (finding)</t>
   </si>
   <si>
-    <t>142575004</t>
-  </si>
-  <si>
-    <t>122857544</t>
+    <t>76232748</t>
+  </si>
+  <si>
+    <t>59960302</t>
   </si>
   <si>
     <t>3767500</t>
@@ -2988,7 +2988,7 @@
     <t>chronic failure</t>
   </si>
   <si>
-    <t>122863547</t>
+    <t>59965800</t>
   </si>
   <si>
     <t>3117067</t>
@@ -2997,7 +2997,7 @@
     <t>st segment</t>
   </si>
   <si>
-    <t>135758552</t>
+    <t>71887822</t>
   </si>
   <si>
     <t>531450</t>
@@ -3006,7 +3006,7 @@
     <t>pituitary apoplexy</t>
   </si>
   <si>
-    <t>79532149</t>
+    <t>13257811</t>
   </si>
   <si>
     <t>4035547</t>
@@ -3015,7 +3015,7 @@
     <t>anal fissure</t>
   </si>
   <si>
-    <t>131104017</t>
+    <t>64714242</t>
   </si>
   <si>
     <t>4817919</t>
@@ -3024,7 +3024,7 @@
     <t>cruveilhier-baumgarten syndrome</t>
   </si>
   <si>
-    <t>79531873</t>
+    <t>13257377</t>
   </si>
   <si>
     <t>5807162</t>
@@ -3033,7 +3033,7 @@
     <t>bleeding esophageal varices</t>
   </si>
   <si>
-    <t>139819228</t>
+    <t>73465053</t>
   </si>
   <si>
     <t>3730784</t>
@@ -3042,7 +3042,7 @@
     <t>bleeding varices</t>
   </si>
   <si>
-    <t>155364114</t>
+    <t>89171571</t>
   </si>
   <si>
     <t>3772114</t>
@@ -3051,7 +3051,7 @@
     <t>anginal attack</t>
   </si>
   <si>
-    <t>129929123</t>
+    <t>63562589</t>
   </si>
   <si>
     <t>2369728</t>
@@ -3060,7 +3060,7 @@
     <t>isolated systolic hypertension</t>
   </si>
   <si>
-    <t>146868431</t>
+    <t>80465650</t>
   </si>
   <si>
     <t>2391809</t>
@@ -3069,7 +3069,7 @@
     <t>exercise-induced angina</t>
   </si>
   <si>
-    <t>125862427</t>
+    <t>62714224</t>
   </si>
   <si>
     <t>3073715</t>
@@ -3078,7 +3078,7 @@
     <t>acute cardiac pulmonary edema</t>
   </si>
   <si>
-    <t>128914531</t>
+    <t>65601456</t>
   </si>
   <si>
     <t>2674365</t>
@@ -3087,7 +3087,7 @@
     <t>portal vein flow adverse event</t>
   </si>
   <si>
-    <t>147328759</t>
+    <t>80888133</t>
   </si>
   <si>
     <t>2883241</t>
@@ -3096,7 +3096,7 @@
     <t>transient myocardial ischemia</t>
   </si>
   <si>
-    <t>122859614</t>
+    <t>59962339</t>
   </si>
   <si>
     <t>3727077</t>
@@ -3105,7 +3105,7 @@
     <t>rebound hyperglycemia</t>
   </si>
   <si>
-    <t>121533007</t>
+    <t>55151562</t>
   </si>
   <si>
     <t>2511154</t>
@@ -3114,7 +3114,7 @@
     <t>postinfarction</t>
   </si>
   <si>
-    <t>130698964</t>
+    <t>64258357</t>
   </si>
   <si>
     <t>41630</t>
@@ -3123,7 +3123,7 @@
     <t>esophageal and gastric varices</t>
   </si>
   <si>
-    <t>79529386</t>
+    <t>13253781</t>
   </si>
   <si>
     <t>2862097</t>
@@ -3132,7 +3132,7 @@
     <t>acute oedema of lung with heart disease</t>
   </si>
   <si>
-    <t>136921338</t>
+    <t>70601273</t>
   </si>
   <si>
     <t>3120688</t>
@@ -3141,7 +3141,7 @@
     <t>elongated cervix</t>
   </si>
   <si>
-    <t>194133340</t>
+    <t>127977876</t>
   </si>
   <si>
     <t>2633052</t>
@@ -3150,7 +3150,7 @@
     <t>functional failure</t>
   </si>
   <si>
-    <t>150005527</t>
+    <t>83628826</t>
   </si>
   <si>
     <t>3059759</t>
@@ -3159,7 +3159,7 @@
     <t>chronic anal fissure</t>
   </si>
   <si>
-    <t>131103772</t>
+    <t>64714014</t>
   </si>
   <si>
     <t>3804623</t>
@@ -3168,7 +3168,7 @@
     <t>decreased systolic arterial pulse pressure</t>
   </si>
   <si>
-    <t>132999731</t>
+    <t>66622341</t>
   </si>
   <si>
     <t>3126064</t>
@@ -3177,7 +3177,7 @@
     <t>character of pulse</t>
   </si>
   <si>
-    <t>121454644</t>
+    <t>55067696</t>
   </si>
   <si>
     <t>3725970</t>
@@ -3186,7 +3186,7 @@
     <t>nocturnal angina</t>
   </si>
   <si>
-    <t>146545211</t>
+    <t>80161643</t>
   </si>
   <si>
     <t>does not augment</t>
@@ -3198,7 +3198,7 @@
     <t>heart failure nyha class ii</t>
   </si>
   <si>
-    <t>148124328</t>
+    <t>83626804</t>
   </si>
   <si>
     <t>84764</t>
@@ -3210,7 +3210,7 @@
     <t>Physiology</t>
   </si>
   <si>
-    <t>120102840</t>
+    <t>53750681</t>
   </si>
   <si>
     <t>does not disrupt</t>
@@ -3222,7 +3222,7 @@
     <t>angiogenic process</t>
   </si>
   <si>
-    <t>124309194</t>
+    <t>57886035</t>
   </si>
   <si>
     <t>3773404</t>
@@ -3231,16 +3231,16 @@
     <t>baresthesia</t>
   </si>
   <si>
-    <t>142711803</t>
-  </si>
-  <si>
-    <t>142711473</t>
+    <t>76246962</t>
   </si>
   <si>
     <t>does not affect</t>
   </si>
   <si>
-    <t>142711197</t>
+    <t>76246723</t>
+  </si>
+  <si>
+    <t>76247236</t>
   </si>
   <si>
     <t>3769667</t>
@@ -3249,13 +3249,13 @@
     <t>blood flow</t>
   </si>
   <si>
-    <t>137305278</t>
-  </si>
-  <si>
-    <t>117488845</t>
-  </si>
-  <si>
-    <t>125815372</t>
+    <t>70951236</t>
+  </si>
+  <si>
+    <t>59394191</t>
+  </si>
+  <si>
+    <t>51301444</t>
   </si>
   <si>
     <t>3778105</t>
@@ -3264,10 +3264,10 @@
     <t>renal function</t>
   </si>
   <si>
-    <t>136192560</t>
-  </si>
-  <si>
-    <t>140117672</t>
+    <t>73730617</t>
+  </si>
+  <si>
+    <t>69697408</t>
   </si>
   <si>
     <t>4027117</t>
@@ -3276,10 +3276,10 @@
     <t>osteogenesis</t>
   </si>
   <si>
-    <t>163202530</t>
-  </si>
-  <si>
-    <t>189277333</t>
+    <t>123061954</t>
+  </si>
+  <si>
+    <t>96997627</t>
   </si>
   <si>
     <t>4048421</t>
@@ -3288,10 +3288,10 @@
     <t>hemodynamics</t>
   </si>
   <si>
-    <t>158040510</t>
-  </si>
-  <si>
-    <t>139487082</t>
+    <t>91916725</t>
+  </si>
+  <si>
+    <t>73099402</t>
   </si>
   <si>
     <t>3815220</t>
@@ -3300,7 +3300,7 @@
     <t>platelet aggregation</t>
   </si>
   <si>
-    <t>133270925</t>
+    <t>66803853</t>
   </si>
   <si>
     <t>5648475</t>
@@ -3309,13 +3309,13 @@
     <t>vasodilation</t>
   </si>
   <si>
-    <t>182694190</t>
-  </si>
-  <si>
-    <t>193813340</t>
-  </si>
-  <si>
-    <t>136606219</t>
+    <t>127595782</t>
+  </si>
+  <si>
+    <t>116470924</t>
+  </si>
+  <si>
+    <t>70189671</t>
   </si>
   <si>
     <t>482261</t>
@@ -3324,13 +3324,22 @@
     <t>systolic pressure</t>
   </si>
   <si>
-    <t>132714588</t>
-  </si>
-  <si>
-    <t>121455333</t>
-  </si>
-  <si>
-    <t>183237023</t>
+    <t>117096804</t>
+  </si>
+  <si>
+    <t>55068278</t>
+  </si>
+  <si>
+    <t>66226671</t>
+  </si>
+  <si>
+    <t>5806595</t>
+  </si>
+  <si>
+    <t>circadian rhythms</t>
+  </si>
+  <si>
+    <t>57561702</t>
   </si>
   <si>
     <t>212978</t>
@@ -3339,19 +3348,10 @@
     <t>vascular constriction (function)</t>
   </si>
   <si>
-    <t>127521180</t>
-  </si>
-  <si>
-    <t>127540749</t>
-  </si>
-  <si>
-    <t>5806595</t>
-  </si>
-  <si>
-    <t>circadian rhythms</t>
-  </si>
-  <si>
-    <t>123972543</t>
+    <t>61100719</t>
+  </si>
+  <si>
+    <t>61121328</t>
   </si>
   <si>
     <t>4041966</t>
@@ -3360,7 +3360,7 @@
     <t>bone resorption</t>
   </si>
   <si>
-    <t>189096271</t>
+    <t>122881756</t>
   </si>
   <si>
     <t>500157</t>
@@ -3369,10 +3369,10 @@
     <t>cardiac output</t>
   </si>
   <si>
-    <t>126699487</t>
-  </si>
-  <si>
-    <t>150004795</t>
+    <t>85508504</t>
+  </si>
+  <si>
+    <t>60286189</t>
   </si>
   <si>
     <t>3769724</t>
@@ -3381,7 +3381,7 @@
     <t>arterial pulse pressure</t>
   </si>
   <si>
-    <t>189797666</t>
+    <t>123582763</t>
   </si>
   <si>
     <t>5034357</t>
@@ -3390,10 +3390,10 @@
     <t>left ventricular function</t>
   </si>
   <si>
-    <t>148568672</t>
-  </si>
-  <si>
-    <t>146591765</t>
+    <t>84066348</t>
+  </si>
+  <si>
+    <t>80125158</t>
   </si>
   <si>
     <t>122947</t>
@@ -3402,7 +3402,7 @@
     <t>erythropoiesis</t>
   </si>
   <si>
-    <t>139435805</t>
+    <t>73023285</t>
   </si>
   <si>
     <t>3195420</t>
@@ -3411,7 +3411,7 @@
     <t>platelet function</t>
   </si>
   <si>
-    <t>131669824</t>
+    <t>65214403</t>
   </si>
   <si>
     <t>552500</t>
@@ -3420,7 +3420,7 @@
     <t>cardiovascular physiological phenomena</t>
   </si>
   <si>
-    <t>125632722</t>
+    <t>59258738</t>
   </si>
   <si>
     <t>4041859</t>
@@ -3429,7 +3429,7 @@
     <t>blood circulation</t>
   </si>
   <si>
-    <t>127341928</t>
+    <t>60897759</t>
   </si>
   <si>
     <t>2450100</t>
@@ -3438,7 +3438,7 @@
     <t>synergism</t>
   </si>
   <si>
-    <t>184137208</t>
+    <t>117941209</t>
   </si>
   <si>
     <t>3212220</t>
@@ -3447,7 +3447,7 @@
     <t>induced platelet aggregation</t>
   </si>
   <si>
-    <t>142578698</t>
+    <t>76236329</t>
   </si>
   <si>
     <t>344335</t>
@@ -3456,10 +3456,10 @@
     <t>total peripheral resistance</t>
   </si>
   <si>
-    <t>139371780</t>
-  </si>
-  <si>
-    <t>123515712</t>
+    <t>57076316</t>
+  </si>
+  <si>
+    <t>72983887</t>
   </si>
   <si>
     <t>3815100</t>
@@ -3468,10 +3468,10 @@
     <t>stroke volume</t>
   </si>
   <si>
-    <t>126699371</t>
-  </si>
-  <si>
-    <t>162782244</t>
+    <t>60286080</t>
+  </si>
+  <si>
+    <t>96578606</t>
   </si>
   <si>
     <t>329121</t>
@@ -3480,7 +3480,7 @@
     <t>pulse pressure</t>
   </si>
   <si>
-    <t>120406581</t>
+    <t>54060698</t>
   </si>
   <si>
     <t>5071170</t>
@@ -3489,7 +3489,7 @@
     <t>portal pressure</t>
   </si>
   <si>
-    <t>117488868</t>
+    <t>51301561</t>
   </si>
   <si>
     <t>799920</t>
@@ -3498,10 +3498,10 @@
     <t>renal plasma flow, effective</t>
   </si>
   <si>
-    <t>158122743</t>
-  </si>
-  <si>
-    <t>158122905</t>
+    <t>91951731</t>
+  </si>
+  <si>
+    <t>91951949</t>
   </si>
   <si>
     <t>2455427</t>
@@ -3510,10 +3510,10 @@
     <t>cervical ripening</t>
   </si>
   <si>
-    <t>182187285</t>
-  </si>
-  <si>
-    <t>135541269</t>
+    <t>69128854</t>
+  </si>
+  <si>
+    <t>115990373</t>
   </si>
   <si>
     <t>3774368</t>
@@ -3522,7 +3522,7 @@
     <t>free water clearance</t>
   </si>
   <si>
-    <t>149247317</t>
+    <t>82821423</t>
   </si>
   <si>
     <t>2385915</t>
@@ -3531,7 +3531,7 @@
     <t>aqueous humor flow</t>
   </si>
   <si>
-    <t>183237054</t>
+    <t>117096833</t>
   </si>
   <si>
     <t>2390769</t>
@@ -3540,7 +3540,7 @@
     <t>choroidal circulation</t>
   </si>
   <si>
-    <t>137305207</t>
+    <t>70951147</t>
   </si>
 </sst>
 </file>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.081923961639404</v>
+        <v>7.201727867126465</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3696,98 +3696,98 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.810666561126709</v>
+        <v>7.081923961639404</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.798738956451416</v>
+        <v>6.810692310333252</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.781726837158203</v>
+        <v>6.798738956451416</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -3811,12 +3811,12 @@
         <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.755556106567383</v>
+        <v>6.78167200088501</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -3840,12 +3840,12 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.686042308807373</v>
+        <v>6.755671977996826</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3869,105 +3869,105 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.65824031829834</v>
+        <v>6.691281318664551</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.5915656089782715</v>
+        <v>6.656824111938477</v>
       </c>
       <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" t="s">
-        <v>65</v>
+      <c r="K9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.476585388183594</v>
+        <v>6.5916924476623535</v>
       </c>
       <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.454381465911865</v>
+        <v>6.476805686950684</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -3991,12 +3991,12 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.448604106903076</v>
+        <v>6.454381465911865</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -4020,12 +4020,12 @@
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.44612979888916</v>
+        <v>6.448663234710693</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -4049,135 +4049,135 @@
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.424074172973633</v>
+        <v>6.446012020111084</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>82</v>
-      </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.420328617095947</v>
+        <v>6.424074172973633</v>
       </c>
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
-        <v>87</v>
-      </c>
       <c r="K15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.409473419189453</v>
+        <v>6.419952392578125</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
         <v>93</v>
       </c>
-      <c r="I16" t="s">
-        <v>57</v>
+      <c r="Q16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.384331703186035</v>
+        <v>6.409473419189453</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
@@ -4201,47 +4201,47 @@
         <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.3582963943481445</v>
+        <v>6.384331703186035</v>
       </c>
       <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
+      <c r="K18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.357065200805664</v>
+        <v>6.357717514038086</v>
       </c>
       <c r="B19" t="s">
         <v>101</v>
@@ -4265,12 +4265,12 @@
         <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.327117919921875</v>
+        <v>6.356992721557617</v>
       </c>
       <c r="B20" t="s">
         <v>104</v>
@@ -4294,12 +4294,12 @@
         <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.321013927459717</v>
+        <v>6.327117919921875</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
@@ -4323,12 +4323,12 @@
         <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.307650089263916</v>
+        <v>6.319514274597168</v>
       </c>
       <c r="B22" t="s">
         <v>110</v>
@@ -4352,7 +4352,7 @@
         <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -4381,7 +4381,7 @@
         <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
         <v>116</v>
@@ -4389,16 +4389,46 @@
       <c r="K23" t="s">
         <v>117</v>
       </c>
+      <c r="L23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" t="s">
+        <v>122</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.293945789337158</v>
+        <v>6.292853832244873</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -4413,46 +4443,16 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" t="s">
-        <v>125</v>
-      </c>
-      <c r="S24" t="s">
-        <v>126</v>
-      </c>
-      <c r="T24" t="s">
         <v>127</v>
-      </c>
-      <c r="U24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -4481,7 +4481,7 @@
         <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -4510,7 +4510,7 @@
         <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4539,12 +4539,12 @@
         <v>136</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.216372013092041</v>
+        <v>6.214764595031738</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
@@ -4568,25 +4568,25 @@
         <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" t="s">
         <v>31</v>
       </c>
-      <c r="L28" t="s">
-        <v>141</v>
-      </c>
-      <c r="M28" t="s">
-        <v>37</v>
-      </c>
       <c r="N28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O28" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -4615,13 +4615,13 @@
         <v>146</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J29" t="s">
         <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -4650,12 +4650,12 @@
         <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.182711124420166</v>
+        <v>6.183252811431885</v>
       </c>
       <c r="B31" t="s">
         <v>151</v>
@@ -4679,25 +4679,25 @@
         <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
         <v>154</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
         <v>155</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N31" t="s">
         <v>156</v>
       </c>
       <c r="O31" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -4726,12 +4726,12 @@
         <v>159</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.172515392303467</v>
+        <v>6.172626495361328</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.1212382316589355</v>
+        <v>6.120988368988037</v>
       </c>
       <c r="B34" t="s">
         <v>163</v>
@@ -4784,24 +4784,24 @@
         <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
         <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L34" t="s">
         <v>167</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.0901947021484375</v>
+        <v>6.090328693389893</v>
       </c>
       <c r="B35" t="s">
         <v>168</v>
@@ -4825,7 +4825,7 @@
         <v>170</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -4854,7 +4854,7 @@
         <v>173</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -4883,12 +4883,12 @@
         <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.06436824798584</v>
+        <v>6.064937114715576</v>
       </c>
       <c r="B38" t="s">
         <v>177</v>
@@ -4912,7 +4912,7 @@
         <v>179</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -4970,12 +4970,12 @@
         <v>185</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.007594108581543</v>
+        <v>6.007431983947754</v>
       </c>
       <c r="B41" t="s">
         <v>186</v>
@@ -4999,66 +4999,66 @@
         <v>188</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" t="s">
-        <v>189</v>
-      </c>
-      <c r="K41" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" t="s">
-        <v>190</v>
-      </c>
-      <c r="M41" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" t="s">
-        <v>191</v>
-      </c>
-      <c r="O41" t="s">
-        <v>35</v>
-      </c>
-      <c r="P41" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>86</v>
-      </c>
-      <c r="R41" t="s">
-        <v>193</v>
-      </c>
-      <c r="S41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.007431983947754</v>
+        <v>6.004828453063965</v>
       </c>
       <c r="B42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L42" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" t="s">
         <v>194</v>
       </c>
-      <c r="C42" t="s">
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s">
         <v>195</v>
       </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="Q42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" t="s">
         <v>196</v>
       </c>
-      <c r="I42" t="s">
-        <v>31</v>
+      <c r="S42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -5087,37 +5087,37 @@
         <v>199</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s">
         <v>200</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="L43" t="s">
         <v>201</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
         <v>202</v>
       </c>
       <c r="O43" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="P43" t="s">
         <v>203</v>
       </c>
       <c r="Q43" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="R43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S43" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -5146,37 +5146,37 @@
         <v>208</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s">
         <v>209</v>
       </c>
       <c r="K44" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s">
         <v>210</v>
       </c>
       <c r="M44" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="N44" t="s">
         <v>211</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P44" t="s">
         <v>212</v>
       </c>
       <c r="Q44" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="R44" t="s">
         <v>213</v>
       </c>
       <c r="S44" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -5205,13 +5205,13 @@
         <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J45" t="s">
         <v>217</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
         <v>218</v>
@@ -5246,7 +5246,7 @@
         <v>221</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -5275,12 +5275,12 @@
         <v>224</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.953981876373291</v>
+        <v>5.953431129455566</v>
       </c>
       <c r="B48" t="s">
         <v>225</v>
@@ -5304,12 +5304,12 @@
         <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.921811103820801</v>
+        <v>5.919830799102783</v>
       </c>
       <c r="B49" t="s">
         <v>228</v>
@@ -5333,12 +5333,12 @@
         <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.914438247680664</v>
+        <v>5.914840221405029</v>
       </c>
       <c r="B50" t="s">
         <v>231</v>
@@ -5362,7 +5362,7 @@
         <v>233</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J50" t="s">
         <v>234</v>
@@ -5374,7 +5374,7 @@
         <v>235</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
@@ -5403,7 +5403,7 @@
         <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -5432,12 +5432,12 @@
         <v>241</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.875570774078369</v>
+        <v>5.875130653381348</v>
       </c>
       <c r="B53" t="s">
         <v>242</v>
@@ -5461,7 +5461,7 @@
         <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
@@ -5519,18 +5519,18 @@
         <v>250</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s">
         <v>251</v>
       </c>
       <c r="K55" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.840570449829102</v>
+        <v>5.839377403259277</v>
       </c>
       <c r="B56" t="s">
         <v>252</v>
@@ -5554,7 +5554,7 @@
         <v>254</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5583,47 +5583,47 @@
         <v>257</v>
       </c>
       <c r="I57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" t="s">
-        <v>258</v>
-      </c>
-      <c r="K57" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.826282024383545</v>
+        <v>5.803020000457764</v>
       </c>
       <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
         <v>259</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
         <v>260</v>
       </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" t="s">
         <v>261</v>
       </c>
-      <c r="I58" t="s">
-        <v>65</v>
+      <c r="K58" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.798319339752197</v>
+        <v>5.797530651092529</v>
       </c>
       <c r="B59" t="s">
         <v>262</v>
@@ -5647,7 +5647,7 @@
         <v>264</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s">
         <v>265</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.793035507202148</v>
+        <v>5.7917046546936035</v>
       </c>
       <c r="B60" t="s">
         <v>266</v>
@@ -5682,19 +5682,19 @@
         <v>268</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J60" t="s">
         <v>269</v>
       </c>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="L60" t="s">
         <v>270</v>
       </c>
       <c r="M60" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5723,7 +5723,7 @@
         <v>273</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5752,7 +5752,7 @@
         <v>276</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -5810,13 +5810,13 @@
         <v>282</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J64" t="s">
         <v>283</v>
       </c>
       <c r="K64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5845,7 +5845,7 @@
         <v>286</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
@@ -5874,13 +5874,13 @@
         <v>289</v>
       </c>
       <c r="I66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J66" t="s">
         <v>290</v>
       </c>
       <c r="K66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -5909,7 +5909,7 @@
         <v>293</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -5944,7 +5944,7 @@
         <v>297</v>
       </c>
       <c r="K68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
@@ -6002,36 +6002,36 @@
         <v>303</v>
       </c>
       <c r="I70" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s">
         <v>304</v>
       </c>
       <c r="K70" t="s">
+        <v>90</v>
+      </c>
+      <c r="L70" t="s">
         <v>305</v>
-      </c>
-      <c r="L70" t="s">
-        <v>306</v>
       </c>
       <c r="M70" t="s">
         <v>35</v>
       </c>
       <c r="N70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O70" t="s">
         <v>35</v>
       </c>
       <c r="P70" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q70" t="s">
         <v>308</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.602624416351318</v>
+        <v>5.603447437286377</v>
       </c>
       <c r="B71" t="s">
         <v>309</v>
@@ -6061,12 +6061,12 @@
         <v>312</v>
       </c>
       <c r="K71" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.584534645080566</v>
+        <v>5.584964275360107</v>
       </c>
       <c r="B72" t="s">
         <v>313</v>
@@ -6090,12 +6090,12 @@
         <v>315</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.5616021156311035</v>
+        <v>5.562958717346191</v>
       </c>
       <c r="B73" t="s">
         <v>316</v>
@@ -6119,43 +6119,43 @@
         <v>318</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s">
         <v>319</v>
       </c>
       <c r="K73" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="L73" t="s">
         <v>320</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="N73" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O73" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P73" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q73" t="s">
         <v>31</v>
       </c>
       <c r="R73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S73" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="T73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U73" t="s">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="V73" t="s">
         <v>326</v>
@@ -6167,13 +6167,13 @@
         <v>327</v>
       </c>
       <c r="Y73" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z73" t="s">
         <v>328</v>
       </c>
       <c r="AA73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6202,7 +6202,7 @@
         <v>331</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6231,12 +6231,12 @@
         <v>334</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.494126796722412</v>
+        <v>5.49518346786499</v>
       </c>
       <c r="B76" t="s">
         <v>335</v>
@@ -6260,7 +6260,7 @@
         <v>337</v>
       </c>
       <c r="I76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J76" t="s">
         <v>338</v>
@@ -6272,7 +6272,7 @@
         <v>339</v>
       </c>
       <c r="M76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -6359,12 +6359,12 @@
         <v>348</v>
       </c>
       <c r="I79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5.440121650695801</v>
+        <v>5.4395222663879395</v>
       </c>
       <c r="B80" t="s">
         <v>349</v>
@@ -6394,12 +6394,12 @@
         <v>352</v>
       </c>
       <c r="K80" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.429203033447266</v>
+        <v>5.424881458282471</v>
       </c>
       <c r="B81" t="s">
         <v>353</v>
@@ -6452,12 +6452,12 @@
         <v>358</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.392696857452393</v>
+        <v>5.393364429473877</v>
       </c>
       <c r="B83" t="s">
         <v>359</v>
@@ -6481,13 +6481,13 @@
         <v>361</v>
       </c>
       <c r="I83" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J83" t="s">
         <v>362</v>
       </c>
       <c r="K83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L83" t="s">
         <v>363</v>
@@ -6499,7 +6499,7 @@
         <v>364</v>
       </c>
       <c r="O83" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -6586,7 +6586,7 @@
         <v>373</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -6615,7 +6615,7 @@
         <v>376</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -6649,7 +6649,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.297453880310059</v>
+        <v>5.298285484313965</v>
       </c>
       <c r="B89" t="s">
         <v>380</v>
@@ -6673,13 +6673,13 @@
         <v>382</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J89" t="s">
         <v>383</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
@@ -6708,13 +6708,13 @@
         <v>386</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J90" t="s">
         <v>387</v>
       </c>
       <c r="K90" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
@@ -6743,7 +6743,7 @@
         <v>390</v>
       </c>
       <c r="I91" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -6772,7 +6772,7 @@
         <v>393</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
@@ -6836,7 +6836,7 @@
         <v>400</v>
       </c>
       <c r="K94" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -6865,7 +6865,7 @@
         <v>403</v>
       </c>
       <c r="I95" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
@@ -6894,13 +6894,13 @@
         <v>404</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J96" t="s">
         <v>405</v>
       </c>
       <c r="K96" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -6929,7 +6929,7 @@
         <v>408</v>
       </c>
       <c r="I97" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -6963,7 +6963,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4.970718860626221</v>
+        <v>4.972480773925781</v>
       </c>
       <c r="B99" t="s">
         <v>412</v>
@@ -6987,7 +6987,7 @@
         <v>414</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -7016,7 +7016,7 @@
         <v>417</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -7045,7 +7045,7 @@
         <v>420</v>
       </c>
       <c r="I101" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J101" t="s">
         <v>421</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.794627666473389</v>
+        <v>4.791971206665039</v>
       </c>
       <c r="B103" t="s">
         <v>425</v>
@@ -7109,7 +7109,7 @@
         <v>427</v>
       </c>
       <c r="I103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -7138,19 +7138,19 @@
         <v>430</v>
       </c>
       <c r="I104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J104" t="s">
         <v>431</v>
       </c>
       <c r="K104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L104" t="s">
         <v>432</v>
       </c>
       <c r="M104" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105">
@@ -7208,7 +7208,7 @@
         <v>438</v>
       </c>
       <c r="I106" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -7237,7 +7237,7 @@
         <v>441</v>
       </c>
       <c r="I107" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
@@ -7266,7 +7266,7 @@
         <v>444</v>
       </c>
       <c r="I108" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -7295,13 +7295,13 @@
         <v>447</v>
       </c>
       <c r="I109" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="J109" t="s">
         <v>448</v>
       </c>
       <c r="K109" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
@@ -7330,13 +7330,13 @@
         <v>451</v>
       </c>
       <c r="I110" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J110" t="s">
         <v>452</v>
       </c>
       <c r="K110" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
@@ -7365,7 +7365,7 @@
         <v>455</v>
       </c>
       <c r="I111" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112">
@@ -7394,13 +7394,13 @@
         <v>458</v>
       </c>
       <c r="I112" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J112" t="s">
         <v>459</v>
       </c>
       <c r="K112" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113">
@@ -7458,7 +7458,7 @@
         <v>465</v>
       </c>
       <c r="I114" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115">
@@ -7487,13 +7487,13 @@
         <v>468</v>
       </c>
       <c r="I115" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="J115" t="s">
         <v>469</v>
       </c>
       <c r="K115" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116">
@@ -7522,7 +7522,7 @@
         <v>472</v>
       </c>
       <c r="I116" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117">
@@ -7551,7 +7551,7 @@
         <v>475</v>
       </c>
       <c r="I117" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118">
@@ -7580,7 +7580,7 @@
         <v>478</v>
       </c>
       <c r="I118" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119">
@@ -7609,7 +7609,7 @@
         <v>481</v>
       </c>
       <c r="I119" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120">
@@ -7638,7 +7638,7 @@
         <v>484</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121">
@@ -7696,13 +7696,13 @@
         <v>490</v>
       </c>
       <c r="I122" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J122" t="s">
         <v>491</v>
       </c>
       <c r="K122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
@@ -7760,13 +7760,13 @@
         <v>497</v>
       </c>
       <c r="I124" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="J124" t="s">
         <v>498</v>
       </c>
       <c r="K124" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
@@ -7795,13 +7795,13 @@
         <v>501</v>
       </c>
       <c r="I125" t="s">
-        <v>325</v>
+        <v>502</v>
       </c>
       <c r="J125" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K125" t="s">
-        <v>503</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126">
@@ -7830,13 +7830,13 @@
         <v>506</v>
       </c>
       <c r="I126" t="s">
-        <v>325</v>
+        <v>502</v>
       </c>
       <c r="J126" t="s">
         <v>507</v>
       </c>
       <c r="K126" t="s">
-        <v>503</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127">
@@ -7865,13 +7865,13 @@
         <v>510</v>
       </c>
       <c r="I127" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J127" t="s">
         <v>511</v>
       </c>
       <c r="K127" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128">
@@ -7900,7 +7900,7 @@
         <v>514</v>
       </c>
       <c r="I128" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129">
@@ -7929,7 +7929,7 @@
         <v>517</v>
       </c>
       <c r="I129" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130">
@@ -7958,13 +7958,13 @@
         <v>520</v>
       </c>
       <c r="I130" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J130" t="s">
         <v>521</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
@@ -7993,7 +7993,7 @@
         <v>524</v>
       </c>
       <c r="I131" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132">
@@ -8022,7 +8022,7 @@
         <v>527</v>
       </c>
       <c r="I132" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133">
@@ -8051,7 +8051,7 @@
         <v>530</v>
       </c>
       <c r="I133" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134">
@@ -8080,7 +8080,7 @@
         <v>533</v>
       </c>
       <c r="I134" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135">
@@ -8109,7 +8109,7 @@
         <v>536</v>
       </c>
       <c r="I135" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136">
@@ -8138,7 +8138,7 @@
         <v>539</v>
       </c>
       <c r="I136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137">
@@ -8167,7 +8167,7 @@
         <v>542</v>
       </c>
       <c r="I137" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138">
@@ -8196,7 +8196,7 @@
         <v>545</v>
       </c>
       <c r="I138" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139">
@@ -8225,13 +8225,13 @@
         <v>548</v>
       </c>
       <c r="I139" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J139" t="s">
         <v>549</v>
       </c>
       <c r="K139" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140">
@@ -8260,13 +8260,13 @@
         <v>552</v>
       </c>
       <c r="I140" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J140" t="s">
         <v>553</v>
       </c>
       <c r="K140" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141">
@@ -8295,7 +8295,7 @@
         <v>556</v>
       </c>
       <c r="I141" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142">
@@ -8324,7 +8324,7 @@
         <v>559</v>
       </c>
       <c r="I142" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143">
@@ -8353,7 +8353,7 @@
         <v>562</v>
       </c>
       <c r="I143" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144">
@@ -8382,7 +8382,7 @@
         <v>565</v>
       </c>
       <c r="I144" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145">
@@ -8411,7 +8411,7 @@
         <v>568</v>
       </c>
       <c r="I145" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146">
@@ -8440,7 +8440,7 @@
         <v>571</v>
       </c>
       <c r="I146" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147">
@@ -8469,7 +8469,7 @@
         <v>574</v>
       </c>
       <c r="I147" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148">
@@ -8498,7 +8498,7 @@
         <v>577</v>
       </c>
       <c r="I148" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.201084613800049</v>
+        <v>7.2007832527160645</v>
       </c>
       <c r="B2" t="s">
         <v>578</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.958363056182861</v>
+        <v>6.957836151123047</v>
       </c>
       <c r="B3" t="s">
         <v>583</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.852530002593994</v>
+        <v>6.851903915405273</v>
       </c>
       <c r="B5" t="s">
         <v>591</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.797109603881836</v>
+        <v>6.7836594581604</v>
       </c>
       <c r="B6" t="s">
         <v>594</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.7751851081848145</v>
+        <v>6.77521276473999</v>
       </c>
       <c r="B7" t="s">
         <v>597</v>
@@ -8849,19 +8849,19 @@
         <v>608</v>
       </c>
       <c r="I10" t="s">
+        <v>586</v>
+      </c>
+      <c r="J10" t="s">
         <v>609</v>
-      </c>
-      <c r="J10" t="s">
-        <v>610</v>
       </c>
       <c r="K10" t="s">
         <v>590</v>
       </c>
       <c r="L10" t="s">
+        <v>610</v>
+      </c>
+      <c r="M10" t="s">
         <v>611</v>
-      </c>
-      <c r="M10" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="11">
@@ -8895,7 +8895,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.088716983795166</v>
+        <v>6.086153507232666</v>
       </c>
       <c r="B12" t="s">
         <v>615</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.815816879272461</v>
+        <v>5.813033580780029</v>
       </c>
       <c r="B15" t="s">
         <v>625</v>
@@ -9128,7 +9128,7 @@
         <v>640</v>
       </c>
       <c r="I19" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20">
@@ -9157,19 +9157,19 @@
         <v>643</v>
       </c>
       <c r="I20" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="J20" t="s">
         <v>644</v>
       </c>
       <c r="K20" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
         <v>645</v>
       </c>
       <c r="M20" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21">
@@ -9409,7 +9409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.263910293579102</v>
+        <v>6.264000415802002</v>
       </c>
       <c r="B2" t="s">
         <v>661</v>
@@ -9433,12 +9433,12 @@
         <v>664</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.156239986419678</v>
+        <v>6.167718887329102</v>
       </c>
       <c r="B3" t="s">
         <v>665</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.143027305603027</v>
+        <v>6.1432647705078125</v>
       </c>
       <c r="B4" t="s">
         <v>668</v>
@@ -9491,12 +9491,12 @@
         <v>670</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.949184894561768</v>
+        <v>5.957454204559326</v>
       </c>
       <c r="B5" t="s">
         <v>671</v>
@@ -9520,12 +9520,12 @@
         <v>673</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.838181495666504</v>
+        <v>5.856015682220459</v>
       </c>
       <c r="B6" t="s">
         <v>674</v>
@@ -9549,12 +9549,12 @@
         <v>676</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.8001532554626465</v>
+        <v>5.838181495666504</v>
       </c>
       <c r="B7" t="s">
         <v>677</v>
@@ -9578,12 +9578,12 @@
         <v>679</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.588809490203857</v>
+        <v>5.589234352111816</v>
       </c>
       <c r="B8" t="s">
         <v>680</v>
@@ -9607,12 +9607,12 @@
         <v>682</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.306510925292969</v>
+        <v>5.313782691955566</v>
       </c>
       <c r="B9" t="s">
         <v>683</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.8011980056762695</v>
+        <v>6.8012237548828125</v>
       </c>
       <c r="B2" t="s">
         <v>686</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.780797958374023</v>
+        <v>6.783306121826172</v>
       </c>
       <c r="B3" t="s">
         <v>691</v>
@@ -9784,18 +9784,18 @@
         <v>693</v>
       </c>
       <c r="I3" t="s">
+        <v>694</v>
+      </c>
+      <c r="J3" t="s">
+        <v>695</v>
+      </c>
+      <c r="K3" t="s">
         <v>690</v>
-      </c>
-      <c r="J3" t="s">
-        <v>694</v>
-      </c>
-      <c r="K3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.735574722290039</v>
+        <v>6.735605239868164</v>
       </c>
       <c r="B4" t="s">
         <v>696</v>
@@ -9819,7 +9819,7 @@
         <v>698</v>
       </c>
       <c r="I4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5">
@@ -9853,7 +9853,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.671942710876465</v>
+        <v>6.675197124481201</v>
       </c>
       <c r="B6" t="s">
         <v>703</v>
@@ -9906,7 +9906,7 @@
         <v>708</v>
       </c>
       <c r="I7" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="J7" t="s">
         <v>709</v>
@@ -9918,12 +9918,12 @@
         <v>711</v>
       </c>
       <c r="M7" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.551523208618164</v>
+        <v>6.5516157150268555</v>
       </c>
       <c r="B8" t="s">
         <v>712</v>
@@ -9982,7 +9982,7 @@
         <v>719</v>
       </c>
       <c r="K9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10">
@@ -10011,18 +10011,18 @@
         <v>722</v>
       </c>
       <c r="I10" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
       <c r="J10" t="s">
         <v>723</v>
       </c>
       <c r="K10" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.515794277191162</v>
+        <v>6.517050743103027</v>
       </c>
       <c r="B11" t="s">
         <v>724</v>
@@ -10081,24 +10081,24 @@
         <v>730</v>
       </c>
       <c r="I12" t="s">
+        <v>586</v>
+      </c>
+      <c r="J12" t="s">
         <v>731</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>732</v>
-      </c>
-      <c r="K12" t="s">
-        <v>690</v>
       </c>
       <c r="L12" t="s">
         <v>733</v>
       </c>
       <c r="M12" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.507769584655762</v>
+        <v>6.5083842277526855</v>
       </c>
       <c r="B13" t="s">
         <v>734</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.50344181060791</v>
+        <v>6.505198955535889</v>
       </c>
       <c r="B14" t="s">
         <v>737</v>
@@ -10209,18 +10209,18 @@
         <v>745</v>
       </c>
       <c r="I16" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="J16" t="s">
         <v>746</v>
       </c>
       <c r="K16" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.493067264556885</v>
+        <v>6.497341632843018</v>
       </c>
       <c r="B17" t="s">
         <v>747</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.47003698348999</v>
+        <v>6.47014856338501</v>
       </c>
       <c r="B18" t="s">
         <v>750</v>
@@ -10273,24 +10273,24 @@
         <v>752</v>
       </c>
       <c r="I18" t="s">
-        <v>710</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>753</v>
       </c>
       <c r="K18" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="L18" t="s">
         <v>754</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.4624786376953125</v>
+        <v>6.462535858154297</v>
       </c>
       <c r="B19" t="s">
         <v>755</v>
@@ -10349,24 +10349,24 @@
         <v>761</v>
       </c>
       <c r="K20" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
         <v>762</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
         <v>763</v>
       </c>
       <c r="O20" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.421518325805664</v>
+        <v>6.422455310821533</v>
       </c>
       <c r="B21" t="s">
         <v>764</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.391291618347168</v>
+        <v>6.396223545074463</v>
       </c>
       <c r="B22" t="s">
         <v>768</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.383923053741455</v>
+        <v>6.384059429168701</v>
       </c>
       <c r="B23" t="s">
         <v>771</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.37468957901001</v>
+        <v>6.3749680519104</v>
       </c>
       <c r="B24" t="s">
         <v>774</v>
@@ -10506,18 +10506,18 @@
         <v>779</v>
       </c>
       <c r="I25" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="J25" t="s">
         <v>780</v>
       </c>
       <c r="K25" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.362040996551514</v>
+        <v>6.362328052520752</v>
       </c>
       <c r="B26" t="s">
         <v>781</v>
@@ -10541,7 +10541,7 @@
         <v>783</v>
       </c>
       <c r="I26" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="J26" t="s">
         <v>784</v>
@@ -10553,7 +10553,7 @@
         <v>785</v>
       </c>
       <c r="M26" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="N26" t="s">
         <v>786</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.335505962371826</v>
+        <v>6.342536926269531</v>
       </c>
       <c r="B28" t="s">
         <v>790</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.334284782409668</v>
+        <v>6.339677810668945</v>
       </c>
       <c r="B29" t="s">
         <v>794</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.307487487792969</v>
+        <v>6.3138628005981445</v>
       </c>
       <c r="B30" t="s">
         <v>797</v>
@@ -10686,7 +10686,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.203962326049805</v>
+        <v>6.210922718048096</v>
       </c>
       <c r="B31" t="s">
         <v>800</v>
@@ -10710,12 +10710,12 @@
         <v>802</v>
       </c>
       <c r="I31" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.203549385070801</v>
+        <v>6.209396839141846</v>
       </c>
       <c r="B32" t="s">
         <v>803</v>
@@ -10739,12 +10739,12 @@
         <v>805</v>
       </c>
       <c r="I32" t="s">
-        <v>767</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.202826023101807</v>
+        <v>6.206636905670166</v>
       </c>
       <c r="B33" t="s">
         <v>806</v>
@@ -10797,18 +10797,18 @@
         <v>811</v>
       </c>
       <c r="I34" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="J34" t="s">
         <v>812</v>
       </c>
       <c r="K34" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.155086994171143</v>
+        <v>6.156815528869629</v>
       </c>
       <c r="B35" t="s">
         <v>813</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.1411237716674805</v>
+        <v>6.144449710845947</v>
       </c>
       <c r="B36" t="s">
         <v>816</v>
@@ -10861,12 +10861,12 @@
         <v>818</v>
       </c>
       <c r="I36" t="s">
-        <v>767</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.136688709259033</v>
+        <v>6.141600131988525</v>
       </c>
       <c r="B37" t="s">
         <v>819</v>
@@ -10890,12 +10890,12 @@
         <v>821</v>
       </c>
       <c r="I37" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.108443260192871</v>
+        <v>6.109470367431641</v>
       </c>
       <c r="B38" t="s">
         <v>822</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.091132164001465</v>
+        <v>6.0968475341796875</v>
       </c>
       <c r="B39" t="s">
         <v>825</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.084390163421631</v>
+        <v>6.085747241973877</v>
       </c>
       <c r="B40" t="s">
         <v>828</v>
@@ -11296,18 +11296,18 @@
         <v>863</v>
       </c>
       <c r="I51" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="J51" t="s">
         <v>864</v>
       </c>
       <c r="K51" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.037059783935547</v>
+        <v>6.037817001342773</v>
       </c>
       <c r="B52" t="s">
         <v>865</v>
@@ -11336,7 +11336,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.030340671539307</v>
+        <v>6.037059783935547</v>
       </c>
       <c r="B53" t="s">
         <v>868</v>
@@ -11365,7 +11365,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.017534255981445</v>
+        <v>6.017375469207764</v>
       </c>
       <c r="B54" t="s">
         <v>871</v>
@@ -11394,7 +11394,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.999574184417725</v>
+        <v>6.000234603881836</v>
       </c>
       <c r="B55" t="s">
         <v>874</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.9844465255737305</v>
+        <v>5.9871745109558105</v>
       </c>
       <c r="B57" t="s">
         <v>880</v>
@@ -11476,12 +11476,12 @@
         <v>882</v>
       </c>
       <c r="I57" t="s">
-        <v>767</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.977550029754639</v>
+        <v>5.9844465255737305</v>
       </c>
       <c r="B58" t="s">
         <v>883</v>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.972304821014404</v>
+        <v>5.977550029754639</v>
       </c>
       <c r="B59" t="s">
         <v>886</v>
@@ -11534,7 +11534,7 @@
         <v>888</v>
       </c>
       <c r="I59" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60">
@@ -11568,7 +11568,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.961800575256348</v>
+        <v>5.962700843811035</v>
       </c>
       <c r="B61" t="s">
         <v>892</v>
@@ -11592,18 +11592,18 @@
         <v>894</v>
       </c>
       <c r="I61" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="J61" t="s">
         <v>895</v>
       </c>
       <c r="K61" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.95048189163208</v>
+        <v>5.9514055252075195</v>
       </c>
       <c r="B62" t="s">
         <v>896</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.9158430099487305</v>
+        <v>5.917043209075928</v>
       </c>
       <c r="B64" t="s">
         <v>902</v>
@@ -11696,7 +11696,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.909384727478027</v>
+        <v>5.912020206451416</v>
       </c>
       <c r="B65" t="s">
         <v>906</v>
@@ -12021,7 +12021,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.483957767486572</v>
+        <v>5.485039710998535</v>
       </c>
       <c r="B76" t="s">
         <v>940</v>
@@ -12138,7 +12138,7 @@
         <v>952</v>
       </c>
       <c r="I79" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
@@ -12225,12 +12225,12 @@
         <v>961</v>
       </c>
       <c r="I82" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.269092559814453</v>
+        <v>5.290746688842773</v>
       </c>
       <c r="B83" t="s">
         <v>962</v>
@@ -12254,7 +12254,7 @@
         <v>964</v>
       </c>
       <c r="I83" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84">
@@ -12283,18 +12283,18 @@
         <v>967</v>
       </c>
       <c r="I84" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="J84" t="s">
         <v>968</v>
       </c>
       <c r="K84" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.184009552001953</v>
+        <v>5.185088634490967</v>
       </c>
       <c r="B85" t="s">
         <v>969</v>
@@ -12463,7 +12463,7 @@
         <v>986</v>
       </c>
       <c r="I90" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J90" t="s">
         <v>987</v>
@@ -12527,7 +12527,7 @@
         <v>993</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
@@ -12817,7 +12817,7 @@
         <v>1023</v>
       </c>
       <c r="I102" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103">
@@ -12991,7 +12991,7 @@
         <v>1041</v>
       </c>
       <c r="I108" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
@@ -13260,7 +13260,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.9485907554626465</v>
+        <v>6.960428714752197</v>
       </c>
       <c r="B2" t="s">
         <v>1061</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.420642375946045</v>
+        <v>6.420140743255615</v>
       </c>
       <c r="B3" t="s">
         <v>1066</v>
@@ -13313,7 +13313,7 @@
         <v>1068</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -13342,19 +13342,19 @@
         <v>1071</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>1072</v>
       </c>
       <c r="J4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="K4" t="s">
-        <v>1073</v>
+        <v>586</v>
       </c>
       <c r="L4" t="s">
         <v>1074</v>
       </c>
       <c r="M4" t="s">
-        <v>586</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -13389,13 +13389,13 @@
         <v>1078</v>
       </c>
       <c r="K5" t="s">
-        <v>1073</v>
+        <v>628</v>
       </c>
       <c r="L5" t="s">
         <v>1079</v>
       </c>
       <c r="M5" t="s">
-        <v>628</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6">
@@ -13424,18 +13424,18 @@
         <v>1082</v>
       </c>
       <c r="I6" t="s">
-        <v>710</v>
+        <v>586</v>
       </c>
       <c r="J6" t="s">
         <v>1083</v>
       </c>
       <c r="K6" t="s">
-        <v>586</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.164793014526367</v>
+        <v>6.164566993713379</v>
       </c>
       <c r="B7" t="s">
         <v>1084</v>
@@ -13459,13 +13459,13 @@
         <v>1086</v>
       </c>
       <c r="I7" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="J7" t="s">
         <v>1087</v>
       </c>
       <c r="K7" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8">
@@ -13494,7 +13494,7 @@
         <v>1090</v>
       </c>
       <c r="I8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J8" t="s">
         <v>1091</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.109342098236084</v>
+        <v>6.1224846839904785</v>
       </c>
       <c r="B9" t="s">
         <v>1092</v>
@@ -13558,19 +13558,19 @@
         <v>1097</v>
       </c>
       <c r="I10" t="s">
-        <v>718</v>
+        <v>586</v>
       </c>
       <c r="J10" t="s">
         <v>1098</v>
       </c>
       <c r="K10" t="s">
-        <v>586</v>
+        <v>718</v>
       </c>
       <c r="L10" t="s">
         <v>1099</v>
       </c>
       <c r="M10" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11">
@@ -13599,24 +13599,24 @@
         <v>1102</v>
       </c>
       <c r="I11" t="s">
-        <v>586</v>
+        <v>710</v>
       </c>
       <c r="J11" t="s">
         <v>1103</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>1104</v>
       </c>
       <c r="M11" t="s">
-        <v>710</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.010019779205322</v>
+        <v>6.010664463043213</v>
       </c>
       <c r="B12" t="s">
         <v>1105</v>
@@ -13642,22 +13642,16 @@
       <c r="I12" t="s">
         <v>586</v>
       </c>
-      <c r="J12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.9286723136901855</v>
+        <v>6.010019779205322</v>
       </c>
       <c r="B13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C13" t="s">
         <v>1109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1110</v>
       </c>
       <c r="D13" t="s">
         <v>1063</v>
@@ -13672,15 +13666,21 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I13" t="s">
         <v>586</v>
       </c>
+      <c r="J13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.919036388397217</v>
+        <v>5.9192352294921875</v>
       </c>
       <c r="B14" t="s">
         <v>1112</v>
@@ -13704,7 +13704,7 @@
         <v>1114</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -13733,13 +13733,13 @@
         <v>1117</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="J15" t="s">
         <v>1118</v>
       </c>
       <c r="K15" t="s">
-        <v>586</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -13768,7 +13768,7 @@
         <v>1121</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -13803,7 +13803,7 @@
         <v>1125</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -13832,7 +13832,7 @@
         <v>1128</v>
       </c>
       <c r="I18" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19">
@@ -14006,13 +14006,13 @@
         <v>1146</v>
       </c>
       <c r="I24" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="J24" t="s">
         <v>1147</v>
       </c>
       <c r="K24" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25">
@@ -14041,7 +14041,7 @@
         <v>1150</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
         <v>1151</v>
@@ -14140,7 +14140,7 @@
         <v>1161</v>
       </c>
       <c r="K28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -14169,13 +14169,13 @@
         <v>1164</v>
       </c>
       <c r="I29" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="J29" t="s">
         <v>1165</v>
       </c>
       <c r="K29" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30">
@@ -14204,7 +14204,7 @@
         <v>1168</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -14233,7 +14233,7 @@
         <v>1171</v>
       </c>
       <c r="I31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="32">
